--- a/example.xlsx
+++ b/example.xlsx
@@ -8,14 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="Paises" sheetId="1" r:id="rId1"/>
-    <sheet name="Metricas" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="1077">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="1054">
   <si>
     <t>nombre</t>
   </si>
@@ -806,7 +805,7 @@
     <t>South America</t>
   </si>
   <si>
-    <t>Kabul,Kabul,Kabul</t>
+    <t>Kabul</t>
   </si>
   <si>
     <t>Mariehamn</t>
@@ -818,7 +817,7 @@
     <t>Algiers</t>
   </si>
   <si>
-    <t>Pago Pago,Pago Pago</t>
+    <t>Pago Pago</t>
   </si>
   <si>
     <t>Andorra la Vella</t>
@@ -833,13 +832,13 @@
     <t>Saint John's</t>
   </si>
   <si>
-    <t>Buenos Aires,Buenos Aires</t>
+    <t>Buenos Aires</t>
   </si>
   <si>
     <t>Yerevan</t>
   </si>
   <si>
-    <t>Oranjestad,Oranjestad</t>
+    <t>Oranjestad</t>
   </si>
   <si>
     <t>Canberra</t>
@@ -848,10 +847,10 @@
     <t>Vienna</t>
   </si>
   <si>
-    <t>Baku,Baku</t>
-  </si>
-  <si>
-    <t>Nassau,Nassau</t>
+    <t>Baku</t>
+  </si>
+  <si>
+    <t>Nassau</t>
   </si>
   <si>
     <t>Manama</t>
@@ -863,13 +862,13 @@
     <t>Bridgetown</t>
   </si>
   <si>
-    <t>Minsk,Minsk</t>
-  </si>
-  <si>
-    <t>Brussels,Brussels,Brussels</t>
-  </si>
-  <si>
-    <t>Belmopan,Belmopan,Belmopan</t>
+    <t>Minsk</t>
+  </si>
+  <si>
+    <t>Brussels</t>
+  </si>
+  <si>
+    <t>Belmopan</t>
   </si>
   <si>
     <t>Porto-Novo</t>
@@ -878,16 +877,16 @@
     <t>Hamilton</t>
   </si>
   <si>
-    <t>Thimphu,Thimphu</t>
-  </si>
-  <si>
-    <t>Sucre,Sucre,Sucre,Sucre</t>
-  </si>
-  <si>
-    <t>Sarajevo,Sarajevo,Sarajevo</t>
-  </si>
-  <si>
-    <t>Gaborone,Gaborone</t>
+    <t>Thimphu</t>
+  </si>
+  <si>
+    <t>Sucre</t>
+  </si>
+  <si>
+    <t>Sarajevo</t>
+  </si>
+  <si>
+    <t>Gaborone</t>
   </si>
   <si>
     <t>Brasília</t>
@@ -899,7 +898,7 @@
     <t>Road Town</t>
   </si>
   <si>
-    <t>Bandar Seri Begawan,Bandar Seri Begawan</t>
+    <t>Bandar Seri Begawan</t>
   </si>
   <si>
     <t>Sofia</t>
@@ -908,31 +907,31 @@
     <t>Ouagadougou</t>
   </si>
   <si>
-    <t>Gitega,Gitega</t>
-  </si>
-  <si>
-    <t>Phnom Penh,Phnom Penh</t>
-  </si>
-  <si>
-    <t>Yaoundé,Yaoundé</t>
-  </si>
-  <si>
-    <t>Ottawa,Ottawa</t>
+    <t>Gitega</t>
+  </si>
+  <si>
+    <t>Phnom Penh</t>
+  </si>
+  <si>
+    <t>Yaoundé</t>
+  </si>
+  <si>
+    <t>Ottawa</t>
   </si>
   <si>
     <t>Praia</t>
   </si>
   <si>
-    <t>Kralendijk,Kralendijk,Kralendijk</t>
+    <t>Kralendijk</t>
   </si>
   <si>
     <t>George Town</t>
   </si>
   <si>
-    <t>Bangui,Bangui</t>
-  </si>
-  <si>
-    <t>N'Djamena,N'Djamena</t>
+    <t>Bangui</t>
+  </si>
+  <si>
+    <t>N'Djamena</t>
   </si>
   <si>
     <t>Santiago</t>
@@ -950,10 +949,10 @@
     <t>Bogotá</t>
   </si>
   <si>
-    <t>Moroni,Moroni,Moroni</t>
-  </si>
-  <si>
-    <t>Avarua,Avarua,Avarua,Avarua</t>
+    <t>Moroni</t>
+  </si>
+  <si>
+    <t>Avarua</t>
   </si>
   <si>
     <t>San José</t>
@@ -962,31 +961,28 @@
     <t>Zagreb</t>
   </si>
   <si>
-    <t>Havana,Havana</t>
-  </si>
-  <si>
-    <t>Willemstad,Willemstad,Willemstad</t>
-  </si>
-  <si>
-    <t>Nicosia,Nicosia</t>
-  </si>
-  <si>
-    <t>Prague,Prague</t>
+    <t>Havana</t>
+  </si>
+  <si>
+    <t>Willemstad</t>
+  </si>
+  <si>
+    <t>Nicosia</t>
+  </si>
+  <si>
+    <t>Prague</t>
   </si>
   <si>
     <t>Copenhagen</t>
   </si>
   <si>
-    <t>Djibouti,Djibouti</t>
-  </si>
-  <si>
     <t>Roseau</t>
   </si>
   <si>
     <t>Santo Domingo</t>
   </si>
   <si>
-    <t>Kinshasa,Kinshasa,Kinshasa,Kinshasa,Kinshasa</t>
+    <t>Kinshasa</t>
   </si>
   <si>
     <t>Quito</t>
@@ -998,16 +994,16 @@
     <t>San Salvador</t>
   </si>
   <si>
-    <t>Malabo,Malabo,Malabo</t>
-  </si>
-  <si>
-    <t>Asmara,Asmara,Asmara</t>
+    <t>Malabo</t>
+  </si>
+  <si>
+    <t>Asmara</t>
   </si>
   <si>
     <t>Tallinn</t>
   </si>
   <si>
-    <t>Mbabane,Mbabane,Mbabane,Mbabane</t>
+    <t>Mbabane</t>
   </si>
   <si>
     <t>Addis Ababa</t>
@@ -1016,13 +1012,13 @@
     <t>Stanley</t>
   </si>
   <si>
-    <t>Tórshavn,Tórshavn,Tórshavn,Tórshavn</t>
-  </si>
-  <si>
-    <t>Suva,Suva,Suva</t>
-  </si>
-  <si>
-    <t>Helsinki,Helsinki</t>
+    <t>Tórshavn</t>
+  </si>
+  <si>
+    <t>Suva</t>
+  </si>
+  <si>
+    <t>Helsinki</t>
   </si>
   <si>
     <t>Paris</t>
@@ -1064,31 +1060,31 @@
     <t>Basse-Terre</t>
   </si>
   <si>
-    <t>Hagåtña,Hagåtña,Hagåtña</t>
+    <t>Hagåtña</t>
   </si>
   <si>
     <t>Guatemala City</t>
   </si>
   <si>
-    <t>St. Peter Port,St. Peter Port,St. Peter Port,St. Peter Port,St. Peter Port,St. Peter Port</t>
+    <t>St. Peter Port</t>
   </si>
   <si>
     <t>Conakry</t>
   </si>
   <si>
-    <t>Bissau,Bissau</t>
+    <t>Bissau</t>
   </si>
   <si>
     <t>Georgetown</t>
   </si>
   <si>
-    <t>Port-au-Prince,Port-au-Prince</t>
+    <t>Port-au-Prince</t>
   </si>
   <si>
     <t>Tegucigalpa</t>
   </si>
   <si>
-    <t>City of Victoria,City of Victoria</t>
+    <t>City of Victoria</t>
   </si>
   <si>
     <t>Budapest</t>
@@ -1097,7 +1093,7 @@
     <t>Reykjavik</t>
   </si>
   <si>
-    <t>New Delhi,New Delhi,New Delhi</t>
+    <t>New Delhi</t>
   </si>
   <si>
     <t>Jakarta</t>
@@ -1106,16 +1102,16 @@
     <t>Tehran</t>
   </si>
   <si>
-    <t>Baghdad,Baghdad,Baghdad</t>
-  </si>
-  <si>
-    <t>Dublin,Dublin</t>
-  </si>
-  <si>
-    <t>Douglas,Douglas,Douglas,Douglas</t>
-  </si>
-  <si>
-    <t>Jerusalem,Jerusalem</t>
+    <t>Baghdad</t>
+  </si>
+  <si>
+    <t>Dublin</t>
+  </si>
+  <si>
+    <t>Douglas</t>
+  </si>
+  <si>
+    <t>Jerusalem</t>
   </si>
   <si>
     <t>Rome</t>
@@ -1124,34 +1120,34 @@
     <t>Yamoussoukro</t>
   </si>
   <si>
-    <t>Kingston,Kingston</t>
+    <t>Kingston</t>
   </si>
   <si>
     <t>Tokyo</t>
   </si>
   <si>
-    <t>Saint Helier,Saint Helier,Saint Helier,Saint Helier,Saint Helier,Saint Helier</t>
+    <t>Saint Helier</t>
   </si>
   <si>
     <t>Amman</t>
   </si>
   <si>
-    <t>Nur-Sultan,Nur-Sultan</t>
-  </si>
-  <si>
-    <t>Nairobi,Nairobi</t>
-  </si>
-  <si>
-    <t>South Tarawa,South Tarawa,South Tarawa,South Tarawa</t>
-  </si>
-  <si>
-    <t>Pristina,Pristina</t>
+    <t>Nur-Sultan</t>
+  </si>
+  <si>
+    <t>Nairobi</t>
+  </si>
+  <si>
+    <t>South Tarawa</t>
+  </si>
+  <si>
+    <t>Pristina</t>
   </si>
   <si>
     <t>Kuwait City</t>
   </si>
   <si>
-    <t>Bishkek,Bishkek</t>
+    <t>Bishkek</t>
   </si>
   <si>
     <t>Vientiane</t>
@@ -1160,10 +1156,10 @@
     <t>Riga</t>
   </si>
   <si>
-    <t>Beirut,Beirut</t>
-  </si>
-  <si>
-    <t>Maseru,Maseru,Maseru,Maseru</t>
+    <t>Beirut</t>
+  </si>
+  <si>
+    <t>Maseru</t>
   </si>
   <si>
     <t>Monrovia</t>
@@ -1178,16 +1174,13 @@
     <t>Vilnius</t>
   </si>
   <si>
-    <t>Luxembourg,Luxembourg,Luxembourg</t>
-  </si>
-  <si>
-    <t>Antananarivo,Antananarivo</t>
-  </si>
-  <si>
-    <t>Lilongwe,Lilongwe</t>
-  </si>
-  <si>
-    <t>Kuala Lumpur,Kuala Lumpur</t>
+    <t>Antananarivo</t>
+  </si>
+  <si>
+    <t>Lilongwe</t>
+  </si>
+  <si>
+    <t>Kuala Lumpur</t>
   </si>
   <si>
     <t>Malé</t>
@@ -1196,10 +1189,10 @@
     <t>Bamako</t>
   </si>
   <si>
-    <t>Valletta,Valletta</t>
-  </si>
-  <si>
-    <t>Majuro,Majuro</t>
+    <t>Valletta</t>
+  </si>
+  <si>
+    <t>Majuro</t>
   </si>
   <si>
     <t>Fort-de-France</t>
@@ -1208,7 +1201,7 @@
     <t>Nouakchott</t>
   </si>
   <si>
-    <t>Port Louis,Port Louis,Port Louis</t>
+    <t>Port Louis</t>
   </si>
   <si>
     <t>Mamoudzou</t>
@@ -1232,7 +1225,7 @@
     <t>Plymouth</t>
   </si>
   <si>
-    <t>Rabat,Rabat</t>
+    <t>Rabat</t>
   </si>
   <si>
     <t>Maputo</t>
@@ -1241,10 +1234,10 @@
     <t>Naypyidaw</t>
   </si>
   <si>
-    <t>Windhoek,Windhoek,Windhoek,Windhoek,Windhoek,Windhoek,Windhoek,Windhoek,Windhoek,Windhoek,Windhoek,Windhoek,Windhoek,Windhoek,Windhoek,Windhoek,Windhoek,Windhoek</t>
-  </si>
-  <si>
-    <t>Yaren,Yaren</t>
+    <t>Windhoek</t>
+  </si>
+  <si>
+    <t>Yaren</t>
   </si>
   <si>
     <t>Kathmandu</t>
@@ -1256,7 +1249,7 @@
     <t>Nouméa</t>
   </si>
   <si>
-    <t>Wellington,Wellington,Wellington</t>
+    <t>Wellington</t>
   </si>
   <si>
     <t>Managua</t>
@@ -1268,10 +1261,10 @@
     <t>Abuja</t>
   </si>
   <si>
-    <t>Alofi,Alofi</t>
-  </si>
-  <si>
-    <t>Saipan,Saipan,Saipan</t>
+    <t>Alofi</t>
+  </si>
+  <si>
+    <t>Saipan</t>
   </si>
   <si>
     <t>Pyongyang</t>
@@ -1280,34 +1273,34 @@
     <t>Skopje</t>
   </si>
   <si>
-    <t>Oslo,Oslo,Oslo</t>
+    <t>Oslo</t>
   </si>
   <si>
     <t>Muscat</t>
   </si>
   <si>
-    <t>Islamabad,Islamabad</t>
-  </si>
-  <si>
-    <t>Ngerulmud,Ngerulmud</t>
-  </si>
-  <si>
-    <t>Jerusalem,Ramallah,Ramallah,Ramallah,Jerusalem,Jerusalem</t>
-  </si>
-  <si>
-    <t>Panama City,Panama City</t>
-  </si>
-  <si>
-    <t>Port Moresby,Port Moresby,Port Moresby</t>
-  </si>
-  <si>
-    <t>Asunción,Asunción</t>
-  </si>
-  <si>
-    <t>Lima,Lima,Lima</t>
-  </si>
-  <si>
-    <t>Manila,Manila</t>
+    <t>Islamabad</t>
+  </si>
+  <si>
+    <t>Ngerulmud</t>
+  </si>
+  <si>
+    <t>Jerusalem, Ramallah</t>
+  </si>
+  <si>
+    <t>Panama City</t>
+  </si>
+  <si>
+    <t>Port Moresby</t>
+  </si>
+  <si>
+    <t>Asunción</t>
+  </si>
+  <si>
+    <t>Lima</t>
+  </si>
+  <si>
+    <t>Manila</t>
   </si>
   <si>
     <t>Adamstown</t>
@@ -1319,13 +1312,13 @@
     <t>Lisbon</t>
   </si>
   <si>
-    <t>San Juan,San Juan</t>
+    <t>San Juan</t>
   </si>
   <si>
     <t>Doha</t>
   </si>
   <si>
-    <t>Brazzaville,Brazzaville,Brazzaville</t>
+    <t>Brazzaville</t>
   </si>
   <si>
     <t>Saint-Denis</t>
@@ -1337,13 +1330,13 @@
     <t>Moscow</t>
   </si>
   <si>
-    <t>Kigali,Kigali,Kigali</t>
+    <t>Kigali</t>
   </si>
   <si>
     <t>Gustavia</t>
   </si>
   <si>
-    <t>Jamestown,Jamestown</t>
+    <t>Jamestown</t>
   </si>
   <si>
     <t>Basseterre</t>
@@ -1361,7 +1354,7 @@
     <t>Kingstown</t>
   </si>
   <si>
-    <t>Apia,Apia</t>
+    <t>Apia</t>
   </si>
   <si>
     <t>City of San Marino</t>
@@ -1379,16 +1372,13 @@
     <t>Belgrade</t>
   </si>
   <si>
-    <t>Victoria,Victoria,Victoria</t>
+    <t>Victoria</t>
   </si>
   <si>
     <t>Freetown</t>
   </si>
   <si>
-    <t>Singapore,Singapore,Singapore,Singapore</t>
-  </si>
-  <si>
-    <t>Philipsburg,Philipsburg,Philipsburg</t>
+    <t>Philipsburg</t>
   </si>
   <si>
     <t>Bratislava</t>
@@ -1400,10 +1390,10 @@
     <t>Honiara</t>
   </si>
   <si>
-    <t>Mogadishu,Mogadishu</t>
-  </si>
-  <si>
-    <t>Bloemfontein,Cape Town,Pretoria,Bloemfontein,Cape Town,Pretoria,Bloemfontein,Cape Town,Pretoria,Bloemfontein,Cape Town,Pretoria,Bloemfontein,Cape Town,Pretoria,Bloemfontein,Cape Town,Pretoria,Bloemfontein,Cape Town,Cape Town,Bloemfontein,Pretoria,Cape Town,Bloemfontein,Pretoria,Cape Town,Bloemfontein,Pretoria,Cape Town,Bloemfontein,Pretoria,Pretoria</t>
+    <t>Mogadishu</t>
+  </si>
+  <si>
+    <t>Bloemfontein, Cape Town, Pretoria</t>
   </si>
   <si>
     <t>King Edward Point</t>
@@ -1418,10 +1408,10 @@
     <t>Madrid</t>
   </si>
   <si>
-    <t>Sri Jayawardenepura Kotte,Sri Jayawardenepura Kotte</t>
-  </si>
-  <si>
-    <t>Khartoum,Khartoum</t>
+    <t>Sri Jayawardenepura Kotte</t>
+  </si>
+  <si>
+    <t>Khartoum</t>
   </si>
   <si>
     <t>Paramaribo</t>
@@ -1433,7 +1423,7 @@
     <t>Stockholm</t>
   </si>
   <si>
-    <t>Bern,Bern,Bern,Bern</t>
+    <t>Bern</t>
   </si>
   <si>
     <t>Damascus</t>
@@ -1442,25 +1432,25 @@
     <t>Taipei</t>
   </si>
   <si>
-    <t>Dushanbe,Dushanbe</t>
-  </si>
-  <si>
-    <t>Dodoma,Dodoma</t>
+    <t>Dushanbe</t>
+  </si>
+  <si>
+    <t>Dodoma</t>
   </si>
   <si>
     <t>Bangkok</t>
   </si>
   <si>
-    <t>Dili,Dili</t>
+    <t>Dili</t>
   </si>
   <si>
     <t>Lomé</t>
   </si>
   <si>
-    <t>Fakaofo,Fakaofo,Fakaofo</t>
-  </si>
-  <si>
-    <t>Nuku'alofa,Nuku'alofa</t>
+    <t>Fakaofo</t>
+  </si>
+  <si>
+    <t>Nuku'alofa</t>
   </si>
   <si>
     <t>Port of Spain</t>
@@ -1472,16 +1462,16 @@
     <t>Ankara</t>
   </si>
   <si>
-    <t>Ashgabat,Ashgabat</t>
+    <t>Ashgabat</t>
   </si>
   <si>
     <t>Cockburn Town</t>
   </si>
   <si>
-    <t>Funafuti,Funafuti,Funafuti,Funafuti</t>
-  </si>
-  <si>
-    <t>Kampala,Kampala</t>
+    <t>Funafuti</t>
+  </si>
+  <si>
+    <t>Kampala</t>
   </si>
   <si>
     <t>Kyiv</t>
@@ -1505,13 +1495,10 @@
     <t>Montevideo</t>
   </si>
   <si>
-    <t>Tashkent,Tashkent</t>
-  </si>
-  <si>
-    <t>Port Vila,Port Vila,Port Vila</t>
-  </si>
-  <si>
-    <t>Vatican City,Vatican City</t>
+    <t>Tashkent</t>
+  </si>
+  <si>
+    <t>Port Vila</t>
   </si>
   <si>
     <t>Caracas</t>
@@ -1523,7 +1510,7 @@
     <t>Mata-Utu</t>
   </si>
   <si>
-    <t>El Aaiún,El Aaiún,El Aaiún,El Aaiún,El Aaiún,El Aaiún,El Aaiún,El Aaiún,El Aaiún</t>
+    <t>El Aaiún</t>
   </si>
   <si>
     <t>Sana'a</t>
@@ -1532,10 +1519,10 @@
     <t>Lusaka</t>
   </si>
   <si>
-    <t>Harare,Harare,Harare,Harare,Harare,Harare,Harare,Harare,Harare,Harare,Harare,Harare,Harare,Harare,Harare</t>
-  </si>
-  <si>
-    <t>Afghan afghani,Afghan afghani,Afghan afghani</t>
+    <t>Harare</t>
+  </si>
+  <si>
+    <t>Afghan afghani</t>
   </si>
   <si>
     <t>Euro</t>
@@ -1547,7 +1534,7 @@
     <t>Algerian dinar</t>
   </si>
   <si>
-    <t>United States dollar,United States dollar</t>
+    <t>United States dollar</t>
   </si>
   <si>
     <t>Angolan kwanza</t>
@@ -1556,22 +1543,22 @@
     <t>Eastern Caribbean dollar</t>
   </si>
   <si>
-    <t>Argentine peso,Argentine peso</t>
+    <t>Argentine peso</t>
   </si>
   <si>
     <t>Armenian dram</t>
   </si>
   <si>
-    <t>Aruban florin,Aruban florin</t>
+    <t>Aruban florin</t>
   </si>
   <si>
     <t>Australian dollar</t>
   </si>
   <si>
-    <t>Azerbaijani manat,Azerbaijani manat</t>
-  </si>
-  <si>
-    <t>United States dollar,Bahamian dollar</t>
+    <t>Azerbaijani manat</t>
+  </si>
+  <si>
+    <t>Bahamian dollar, United States dollar</t>
   </si>
   <si>
     <t>Bahraini dinar</t>
@@ -1583,13 +1570,10 @@
     <t>Barbadian dollar</t>
   </si>
   <si>
-    <t>Belarusian ruble,Belarusian ruble</t>
-  </si>
-  <si>
-    <t>Euro,Euro,Euro</t>
-  </si>
-  <si>
-    <t>Belize dollar,Belize dollar,Belize dollar</t>
+    <t>Belarusian ruble</t>
+  </si>
+  <si>
+    <t>Belize dollar</t>
   </si>
   <si>
     <t>West African CFA franc</t>
@@ -1598,48 +1582,42 @@
     <t>Bermudian dollar</t>
   </si>
   <si>
-    <t>Bhutanese ngultrum,Indian rupee</t>
-  </si>
-  <si>
-    <t>Bolivian boliviano,Bolivian boliviano,Bolivian boliviano,Bolivian boliviano</t>
-  </si>
-  <si>
-    <t>Bosnia and Herzegovina convertible mark,Bosnia and Herzegovina convertible mark,Bosnia and Herzegovina convertible mark</t>
-  </si>
-  <si>
-    <t>Botswana pula,Botswana pula</t>
+    <t>Bhutanese ngultrum, Indian rupee</t>
+  </si>
+  <si>
+    <t>Bolivian boliviano</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina convertible mark</t>
+  </si>
+  <si>
+    <t>Botswana pula</t>
   </si>
   <si>
     <t>Brazilian real</t>
   </si>
   <si>
-    <t>United States dollar</t>
-  </si>
-  <si>
-    <t>Brunei dollar,Singapore dollar</t>
+    <t>Brunei dollar, Singapore dollar</t>
   </si>
   <si>
     <t>Bulgarian lev</t>
   </si>
   <si>
-    <t>Burundian franc,Burundian franc</t>
-  </si>
-  <si>
-    <t>Cambodian riel,United States dollar</t>
-  </si>
-  <si>
-    <t>Central African CFA franc,Central African CFA franc</t>
-  </si>
-  <si>
-    <t>Canadian dollar,Canadian dollar</t>
+    <t>Burundian franc</t>
+  </si>
+  <si>
+    <t>Cambodian riel, United States dollar</t>
+  </si>
+  <si>
+    <t>Central African CFA franc</t>
+  </si>
+  <si>
+    <t>Canadian dollar</t>
   </si>
   <si>
     <t>Cape Verdean escudo</t>
   </si>
   <si>
-    <t>United States dollar,United States dollar,United States dollar</t>
-  </si>
-  <si>
     <t>Cayman Islands dollar</t>
   </si>
   <si>
@@ -1652,49 +1630,43 @@
     <t>Colombian peso</t>
   </si>
   <si>
-    <t>Comorian franc,Comorian franc,Comorian franc</t>
-  </si>
-  <si>
-    <t>Cook Islands dollar,New Zealand dollar,Cook Islands dollar,New Zealand dollar</t>
+    <t>Comorian franc</t>
+  </si>
+  <si>
+    <t>Cook Islands dollar, New Zealand dollar</t>
   </si>
   <si>
     <t>Costa Rican colón</t>
   </si>
   <si>
-    <t>Cuban peso,Cuban convertible peso</t>
-  </si>
-  <si>
-    <t>Netherlands Antillean guilder,Netherlands Antillean guilder,Netherlands Antillean guilder</t>
-  </si>
-  <si>
-    <t>Euro,Euro</t>
-  </si>
-  <si>
-    <t>Czech koruna,Czech koruna</t>
+    <t>Cuban convertible peso, Cuban peso</t>
+  </si>
+  <si>
+    <t>Netherlands Antillean guilder</t>
+  </si>
+  <si>
+    <t>Czech koruna</t>
   </si>
   <si>
     <t>krone</t>
   </si>
   <si>
-    <t>Djiboutian franc,Djiboutian franc</t>
+    <t>Djiboutian franc</t>
   </si>
   <si>
     <t>Dominican peso</t>
   </si>
   <si>
-    <t>Congolese franc,Congolese franc,Congolese franc,Congolese franc,Congolese franc</t>
+    <t>Congolese franc</t>
   </si>
   <si>
     <t>Egyptian pound</t>
   </si>
   <si>
-    <t>Central African CFA franc,Central African CFA franc,Central African CFA franc</t>
-  </si>
-  <si>
-    <t>Eritrean nakfa,Eritrean nakfa,Eritrean nakfa</t>
-  </si>
-  <si>
-    <t>South African rand,Swazi lilangeni,South African rand,Swazi lilangeni</t>
+    <t>Eritrean nakfa</t>
+  </si>
+  <si>
+    <t>South African rand, Swazi lilangeni</t>
   </si>
   <si>
     <t>Ethiopian birr</t>
@@ -1703,18 +1675,15 @@
     <t>Falkland Islands pound</t>
   </si>
   <si>
-    <t>Faroese króna,krone,krone,Faroese króna</t>
-  </si>
-  <si>
-    <t>Fijian dollar,Fijian dollar,Fijian dollar</t>
+    <t>Faroese króna, krone</t>
+  </si>
+  <si>
+    <t>Fijian dollar</t>
   </si>
   <si>
     <t>CFP franc</t>
   </si>
   <si>
-    <t>Central African CFA franc</t>
-  </si>
-  <si>
     <t>dalasi</t>
   </si>
   <si>
@@ -1730,25 +1699,22 @@
     <t>Guatemalan quetzal</t>
   </si>
   <si>
-    <t>Guernsey pound,British pound,Guernsey pound,Guernsey pound,British pound,British pound</t>
+    <t>British pound, Guernsey pound</t>
   </si>
   <si>
     <t>Guinean franc</t>
   </si>
   <si>
-    <t>West African CFA franc,West African CFA franc</t>
-  </si>
-  <si>
     <t>Guyanese dollar</t>
   </si>
   <si>
-    <t>Haitian gourde,Haitian gourde</t>
+    <t>Haitian gourde</t>
   </si>
   <si>
     <t>Honduran lempira</t>
   </si>
   <si>
-    <t>Hong Kong dollar,Hong Kong dollar</t>
+    <t>Hong Kong dollar</t>
   </si>
   <si>
     <t>Hungarian forint</t>
@@ -1757,7 +1723,7 @@
     <t>Icelandic króna</t>
   </si>
   <si>
-    <t>Indian rupee,Indian rupee,Indian rupee</t>
+    <t>Indian rupee</t>
   </si>
   <si>
     <t>Indonesian rupiah</t>
@@ -1766,49 +1732,49 @@
     <t>Iranian rial</t>
   </si>
   <si>
-    <t>Iraqi dinar,Iraqi dinar,Iraqi dinar</t>
-  </si>
-  <si>
-    <t>Manx pound,Manx pound,British pound,British pound</t>
-  </si>
-  <si>
-    <t>Israeli new shekel,Israeli new shekel</t>
-  </si>
-  <si>
-    <t>Jamaican dollar,Jamaican dollar</t>
+    <t>Iraqi dinar</t>
+  </si>
+  <si>
+    <t>British pound, Manx pound</t>
+  </si>
+  <si>
+    <t>Israeli new shekel</t>
+  </si>
+  <si>
+    <t>Jamaican dollar</t>
   </si>
   <si>
     <t>Japanese yen</t>
   </si>
   <si>
-    <t>British pound,Jersey pound,British pound,Jersey pound,British pound,Jersey pound</t>
+    <t>British pound, Jersey pound</t>
   </si>
   <si>
     <t>Jordanian dinar</t>
   </si>
   <si>
-    <t>Kazakhstani tenge,Kazakhstani tenge</t>
-  </si>
-  <si>
-    <t>Kenyan shilling,Kenyan shilling</t>
-  </si>
-  <si>
-    <t>Australian dollar,Kiribati dollar,Australian dollar,Kiribati dollar</t>
+    <t>Kazakhstani tenge</t>
+  </si>
+  <si>
+    <t>Kenyan shilling</t>
+  </si>
+  <si>
+    <t>Australian dollar, Kiribati dollar</t>
   </si>
   <si>
     <t>Kuwaiti dinar</t>
   </si>
   <si>
-    <t>Kyrgyzstani som,Kyrgyzstani som</t>
+    <t>Kyrgyzstani som</t>
   </si>
   <si>
     <t>Lao kip</t>
   </si>
   <si>
-    <t>Lebanese pound,Lebanese pound</t>
-  </si>
-  <si>
-    <t>Lesotho loti,South African rand,Lesotho loti,South African rand</t>
+    <t>Lebanese pound</t>
+  </si>
+  <si>
+    <t>Lesotho loti, South African rand</t>
   </si>
   <si>
     <t>Liberian dollar</t>
@@ -1820,16 +1786,16 @@
     <t>Swiss franc</t>
   </si>
   <si>
-    <t>Macanese pataca,Macanese pataca</t>
-  </si>
-  <si>
-    <t>Malagasy ariary,Malagasy ariary</t>
-  </si>
-  <si>
-    <t>Malawian kwacha,Malawian kwacha</t>
-  </si>
-  <si>
-    <t>Malaysian ringgit,Malaysian ringgit</t>
+    <t>Macanese pataca</t>
+  </si>
+  <si>
+    <t>Malagasy ariary</t>
+  </si>
+  <si>
+    <t>Malawian kwacha</t>
+  </si>
+  <si>
+    <t>Malaysian ringgit</t>
   </si>
   <si>
     <t>Maldivian rufiyaa</t>
@@ -1838,7 +1804,7 @@
     <t>Mauritanian ouguiya</t>
   </si>
   <si>
-    <t>Mauritian rupee,Mauritian rupee,Mauritian rupee</t>
+    <t>Mauritian rupee</t>
   </si>
   <si>
     <t>Mexican peso</t>
@@ -1850,7 +1816,7 @@
     <t>Mongolian tögrög</t>
   </si>
   <si>
-    <t>Moroccan dirham,Moroccan dirham</t>
+    <t>Moroccan dirham</t>
   </si>
   <si>
     <t>Mozambican metical</t>
@@ -1859,16 +1825,13 @@
     <t>Burmese kyat</t>
   </si>
   <si>
-    <t>South African rand,South African rand,Namibian dollar,South African rand,Namibian dollar,Namibian dollar,Namibian dollar,South African rand,Namibian dollar,South African rand,Namibian dollar,South African rand,Namibian dollar,South African rand,Namibian dollar,South African rand,Namibian dollar,South African rand</t>
-  </si>
-  <si>
-    <t>Australian dollar,Australian dollar</t>
+    <t>Namibian dollar, South African rand</t>
   </si>
   <si>
     <t>Nepalese rupee</t>
   </si>
   <si>
-    <t>New Zealand dollar,New Zealand dollar,New Zealand dollar</t>
+    <t>New Zealand dollar</t>
   </si>
   <si>
     <t>Nicaraguan córdoba</t>
@@ -1877,43 +1840,34 @@
     <t>Nigerian naira</t>
   </si>
   <si>
-    <t>New Zealand dollar,New Zealand dollar</t>
-  </si>
-  <si>
     <t>North Korean won</t>
   </si>
   <si>
     <t>denar</t>
   </si>
   <si>
-    <t>krone,krone,krone</t>
-  </si>
-  <si>
     <t>Omani rial</t>
   </si>
   <si>
-    <t>Pakistani rupee,Pakistani rupee</t>
-  </si>
-  <si>
-    <t>Egyptian pound,Egyptian pound,Israeli new shekel,Jordanian dinar,Israeli new shekel,Jordanian dinar</t>
-  </si>
-  <si>
-    <t>United States dollar,Panamanian balboa</t>
-  </si>
-  <si>
-    <t>Papua New Guinean kina,Papua New Guinean kina,Papua New Guinean kina</t>
-  </si>
-  <si>
-    <t>Paraguayan guaraní,Paraguayan guaraní</t>
-  </si>
-  <si>
-    <t>Peruvian sol,Peruvian sol,Peruvian sol</t>
-  </si>
-  <si>
-    <t>Philippine peso,Philippine peso</t>
-  </si>
-  <si>
-    <t>New Zealand dollar</t>
+    <t>Pakistani rupee</t>
+  </si>
+  <si>
+    <t>Egyptian pound, Israeli new shekel, Jordanian dinar</t>
+  </si>
+  <si>
+    <t>Panamanian balboa, United States dollar</t>
+  </si>
+  <si>
+    <t>Papua New Guinean kina</t>
+  </si>
+  <si>
+    <t>Paraguayan guaraní</t>
+  </si>
+  <si>
+    <t>Peruvian sol</t>
+  </si>
+  <si>
+    <t>Philippine peso</t>
   </si>
   <si>
     <t>Polish złoty</t>
@@ -1928,13 +1882,13 @@
     <t>Russian ruble</t>
   </si>
   <si>
-    <t>Rwandan franc,Rwandan franc,Rwandan franc</t>
-  </si>
-  <si>
-    <t>Saint Helena pound,British pound</t>
-  </si>
-  <si>
-    <t>Samoan tālā,Samoan tālā</t>
+    <t>Rwandan franc</t>
+  </si>
+  <si>
+    <t>British pound, Saint Helena pound</t>
+  </si>
+  <si>
+    <t>Samoan tālā</t>
   </si>
   <si>
     <t>São Tomé and Príncipe dobra</t>
@@ -1946,22 +1900,22 @@
     <t>Serbian dinar</t>
   </si>
   <si>
-    <t>Seychellois rupee,Seychellois rupee,Seychellois rupee</t>
+    <t>Seychellois rupee</t>
   </si>
   <si>
     <t>Sierra Leonean leone</t>
   </si>
   <si>
-    <t>Singapore dollar,Singapore dollar,Singapore dollar,Singapore dollar</t>
+    <t>Singapore dollar</t>
   </si>
   <si>
     <t>Solomon Islands dollar</t>
   </si>
   <si>
-    <t>Somali shilling,Somali shilling</t>
-  </si>
-  <si>
-    <t>South African rand,South African rand,South African rand,South African rand,South African rand,South African rand,South African rand,South African rand,South African rand,South African rand,South African rand,South African rand,South African rand,South African rand,South African rand,South African rand,South African rand,South African rand,South African rand,South African rand,South African rand,South African rand,South African rand,South African rand,South African rand,South African rand,South African rand,South African rand,South African rand,South African rand,South African rand,South African rand,South African rand</t>
+    <t>Somali shilling</t>
+  </si>
+  <si>
+    <t>South African rand</t>
   </si>
   <si>
     <t>Saint Helena pound</t>
@@ -1973,10 +1927,10 @@
     <t>South Sudanese pound</t>
   </si>
   <si>
-    <t>Sri Lankan rupee,Sri Lankan rupee</t>
-  </si>
-  <si>
-    <t>Sudanese pound,Sudanese pound</t>
+    <t>Sri Lankan rupee</t>
+  </si>
+  <si>
+    <t>Sudanese pound</t>
   </si>
   <si>
     <t>Surinamese dollar</t>
@@ -1985,25 +1939,22 @@
     <t>Swedish krona</t>
   </si>
   <si>
-    <t>Swiss franc,Swiss franc,Swiss franc,Swiss franc</t>
-  </si>
-  <si>
     <t>Syrian pound</t>
   </si>
   <si>
     <t>New Taiwan dollar</t>
   </si>
   <si>
-    <t>Tajikistani somoni,Tajikistani somoni</t>
-  </si>
-  <si>
-    <t>Tanzanian shilling,Tanzanian shilling</t>
+    <t>Tajikistani somoni</t>
+  </si>
+  <si>
+    <t>Tanzanian shilling</t>
   </si>
   <si>
     <t>Thai baht</t>
   </si>
   <si>
-    <t>Tongan paʻanga,Tongan paʻanga</t>
+    <t>Tongan paʻanga</t>
   </si>
   <si>
     <t>Trinidad and Tobago dollar</t>
@@ -2015,13 +1966,13 @@
     <t>Turkish lira</t>
   </si>
   <si>
-    <t>Turkmenistan manat,Turkmenistan manat</t>
-  </si>
-  <si>
-    <t>Tuvaluan dollar,Australian dollar,Tuvaluan dollar,Australian dollar</t>
-  </si>
-  <si>
-    <t>Ugandan shilling,Ugandan shilling</t>
+    <t>Turkmenistan manat</t>
+  </si>
+  <si>
+    <t>Australian dollar, Tuvaluan dollar</t>
+  </si>
+  <si>
+    <t>Ugandan shilling</t>
   </si>
   <si>
     <t>Ukrainian hryvnia</t>
@@ -2036,10 +1987,10 @@
     <t>Uruguayan peso</t>
   </si>
   <si>
-    <t>Uzbekistani soʻm,Uzbekistani soʻm</t>
-  </si>
-  <si>
-    <t>Vanuatu vatu,Vanuatu vatu,Vanuatu vatu</t>
+    <t>Uzbekistani soʻm</t>
+  </si>
+  <si>
+    <t>Vanuatu vatu</t>
   </si>
   <si>
     <t>Venezuelan bolívar soberano</t>
@@ -2048,7 +1999,7 @@
     <t>Vietnamese đồng</t>
   </si>
   <si>
-    <t>Moroccan dirham,Mauritanian ouguiya,Mauritanian ouguiya,Algerian dinar,Algerian dinar,Moroccan dirham,Algerian dinar,Moroccan dirham,Mauritanian ouguiya</t>
+    <t>Algerian dinar, Mauritanian ouguiya, Moroccan dirham</t>
   </si>
   <si>
     <t>Yemeni rial</t>
@@ -2057,10 +2008,10 @@
     <t>Zambian kwacha</t>
   </si>
   <si>
-    <t>Zimbabwean dollar,Zimbabwean dollar,Zimbabwean dollar,Zimbabwean dollar,Zimbabwean dollar,Zimbabwean dollar,Zimbabwean dollar,Zimbabwean dollar,Zimbabwean dollar,Zimbabwean dollar,Zimbabwean dollar,Zimbabwean dollar,Zimbabwean dollar,Zimbabwean dollar,Zimbabwean dollar</t>
-  </si>
-  <si>
-    <t>Turkmen,Dari,Pashto</t>
+    <t>Zimbabwean dollar</t>
+  </si>
+  <si>
+    <t>Dari, Pashto, Turkmen</t>
   </si>
   <si>
     <t>Swedish</t>
@@ -2072,7 +2023,7 @@
     <t>Arabic</t>
   </si>
   <si>
-    <t>Samoan,English</t>
+    <t>English, Samoan</t>
   </si>
   <si>
     <t>Catalan</t>
@@ -2084,79 +2035,73 @@
     <t>English</t>
   </si>
   <si>
-    <t>Spanish,Guaraní</t>
+    <t>Guaraní, Spanish</t>
   </si>
   <si>
     <t>Armenian</t>
   </si>
   <si>
-    <t>Dutch,Papiamento</t>
+    <t>Dutch, Papiamento</t>
   </si>
   <si>
     <t>German</t>
   </si>
   <si>
-    <t>Azerbaijani,Russian</t>
-  </si>
-  <si>
-    <t>English,English</t>
+    <t>Azerbaijani, Russian</t>
   </si>
   <si>
     <t>Bengali</t>
   </si>
   <si>
-    <t>Russian,Belarusian</t>
-  </si>
-  <si>
-    <t>French,German,Dutch</t>
-  </si>
-  <si>
-    <t>Belizean Creole,Spanish,English</t>
+    <t>Belarusian, Russian</t>
+  </si>
+  <si>
+    <t>Dutch, French, German</t>
+  </si>
+  <si>
+    <t>Belizean Creole, English, Spanish</t>
   </si>
   <si>
     <t>French</t>
   </si>
   <si>
-    <t>Dzongkha,Dzongkha</t>
-  </si>
-  <si>
-    <t>Aymara,Quechua,Guaraní,Spanish</t>
-  </si>
-  <si>
-    <t>Croatian,Serbian,Bosnian</t>
-  </si>
-  <si>
-    <t>English,Tswana</t>
+    <t>Dzongkha</t>
+  </si>
+  <si>
+    <t>Aymara, Guaraní, Quechua, Spanish</t>
+  </si>
+  <si>
+    <t>Bosnian, Croatian, Serbian</t>
+  </si>
+  <si>
+    <t>English, Tswana</t>
   </si>
   <si>
     <t>Norwegian</t>
   </si>
   <si>
-    <t>Malay,Malay</t>
+    <t>Malay</t>
   </si>
   <si>
     <t>Bulgarian</t>
   </si>
   <si>
-    <t>Kirundi,French</t>
-  </si>
-  <si>
-    <t>Khmer,Khmer</t>
-  </si>
-  <si>
-    <t>French,English</t>
-  </si>
-  <si>
-    <t>English,French</t>
-  </si>
-  <si>
-    <t>Dutch,Papiamento,English</t>
-  </si>
-  <si>
-    <t>Sango,French</t>
-  </si>
-  <si>
-    <t>Arabic,French</t>
+    <t>French, Kirundi</t>
+  </si>
+  <si>
+    <t>Khmer</t>
+  </si>
+  <si>
+    <t>English, French</t>
+  </si>
+  <si>
+    <t>Dutch, English, Papiamento</t>
+  </si>
+  <si>
+    <t>French, Sango</t>
+  </si>
+  <si>
+    <t>Arabic, French</t>
   </si>
   <si>
     <t>Spanish</t>
@@ -2165,55 +2110,49 @@
     <t>Chinese</t>
   </si>
   <si>
-    <t>French,Comorian,Arabic</t>
-  </si>
-  <si>
-    <t>Cook Islands Māori,Cook Islands Māori,English,English</t>
+    <t>Arabic, Comorian, French</t>
+  </si>
+  <si>
+    <t>Cook Islands Māori, English</t>
   </si>
   <si>
     <t>Croatian</t>
   </si>
   <si>
-    <t>Spanish,Spanish</t>
-  </si>
-  <si>
-    <t>English,Dutch,Papiamento</t>
-  </si>
-  <si>
-    <t>Greek,Turkish</t>
-  </si>
-  <si>
-    <t>Slovak,Czech</t>
+    <t>Greek, Turkish</t>
+  </si>
+  <si>
+    <t>Czech, Slovak</t>
   </si>
   <si>
     <t>Danish</t>
   </si>
   <si>
-    <t>French,Lingala,Swahili,Tshiluba,Kikongo</t>
-  </si>
-  <si>
-    <t>French,Portuguese,Spanish</t>
-  </si>
-  <si>
-    <t>Tigrinya,English,Arabic</t>
+    <t>French, Kikongo, Lingala, Swahili, Tshiluba</t>
+  </si>
+  <si>
+    <t>French, Portuguese, Spanish</t>
+  </si>
+  <si>
+    <t>Arabic, English, Tigrinya</t>
   </si>
   <si>
     <t>Estonian</t>
   </si>
   <si>
-    <t>English,Swazi,Swazi,English</t>
+    <t>English, Swazi</t>
   </si>
   <si>
     <t>Amharic</t>
   </si>
   <si>
-    <t>Danish,Faroese,Danish,Faroese</t>
-  </si>
-  <si>
-    <t>English,Fiji Hindi,Fijian</t>
-  </si>
-  <si>
-    <t>Swedish,Finnish</t>
+    <t>Danish, Faroese</t>
+  </si>
+  <si>
+    <t>English, Fijian, Fiji Hindi</t>
+  </si>
+  <si>
+    <t>Finnish, Swedish</t>
   </si>
   <si>
     <t>Georgian</t>
@@ -2225,19 +2164,19 @@
     <t>Greenlandic</t>
   </si>
   <si>
-    <t>Chamorro,English,Spanish</t>
-  </si>
-  <si>
-    <t>English,English,French,Guernésiais,Guernésiais,French</t>
-  </si>
-  <si>
-    <t>Portuguese,Upper Guinea Creole</t>
-  </si>
-  <si>
-    <t>Haitian Creole,French</t>
-  </si>
-  <si>
-    <t>English,Chinese</t>
+    <t>Chamorro, English, Spanish</t>
+  </si>
+  <si>
+    <t>English, French, Guernésiais</t>
+  </si>
+  <si>
+    <t>Portuguese, Upper Guinea Creole</t>
+  </si>
+  <si>
+    <t>French, Haitian Creole</t>
+  </si>
+  <si>
+    <t>Chinese, English</t>
   </si>
   <si>
     <t>Hungarian</t>
@@ -2246,7 +2185,7 @@
     <t>Icelandic</t>
   </si>
   <si>
-    <t>English,Tamil,Hindi</t>
+    <t>English, Hindi, Tamil</t>
   </si>
   <si>
     <t>Indonesian</t>
@@ -2255,43 +2194,43 @@
     <t>Persian (Farsi)</t>
   </si>
   <si>
-    <t>Aramaic,Sorani,Arabic</t>
-  </si>
-  <si>
-    <t>Irish,English</t>
-  </si>
-  <si>
-    <t>Manx,English,Manx,English</t>
-  </si>
-  <si>
-    <t>Hebrew,Arabic</t>
+    <t>Arabic, Aramaic, Sorani</t>
+  </si>
+  <si>
+    <t>English, Irish</t>
+  </si>
+  <si>
+    <t>English, Manx</t>
+  </si>
+  <si>
+    <t>Arabic, Hebrew</t>
   </si>
   <si>
     <t>Italian</t>
   </si>
   <si>
-    <t>Jamaican Patois,English</t>
+    <t>English, Jamaican Patois</t>
   </si>
   <si>
     <t>Japanese</t>
   </si>
   <si>
-    <t>Jèrriais,English,French,French,English,Jèrriais</t>
-  </si>
-  <si>
-    <t>Kazakh,Russian</t>
-  </si>
-  <si>
-    <t>English,Swahili</t>
-  </si>
-  <si>
-    <t>Gilbertese,English,English,Gilbertese</t>
-  </si>
-  <si>
-    <t>Serbian,Albanian</t>
-  </si>
-  <si>
-    <t>Kyrgyz,Russian</t>
+    <t>English, French, Jèrriais</t>
+  </si>
+  <si>
+    <t>Kazakh, Russian</t>
+  </si>
+  <si>
+    <t>English, Swahili</t>
+  </si>
+  <si>
+    <t>English, Gilbertese</t>
+  </si>
+  <si>
+    <t>Albanian, Serbian</t>
+  </si>
+  <si>
+    <t>Kyrgyz, Russian</t>
   </si>
   <si>
     <t>Lao</t>
@@ -2300,37 +2239,37 @@
     <t>Latvian</t>
   </si>
   <si>
-    <t>Sotho,English,English,Sotho</t>
+    <t>English, Sotho</t>
   </si>
   <si>
     <t>Lithuanian</t>
   </si>
   <si>
-    <t>German,French,Luxembourgish</t>
-  </si>
-  <si>
-    <t>Portuguese,Chinese</t>
-  </si>
-  <si>
-    <t>French,Malagasy</t>
-  </si>
-  <si>
-    <t>Chewa,English</t>
-  </si>
-  <si>
-    <t>Malay,English</t>
+    <t>French, German, Luxembourgish</t>
+  </si>
+  <si>
+    <t>Chinese, Portuguese</t>
+  </si>
+  <si>
+    <t>French, Malagasy</t>
+  </si>
+  <si>
+    <t>Chewa, English</t>
+  </si>
+  <si>
+    <t>English, Malay</t>
   </si>
   <si>
     <t>Maldivian</t>
   </si>
   <si>
-    <t>Maltese,English</t>
-  </si>
-  <si>
-    <t>Marshallese,English</t>
-  </si>
-  <si>
-    <t>Mauritian Creole,French,English</t>
+    <t>English, Maltese</t>
+  </si>
+  <si>
+    <t>English, Marshallese</t>
+  </si>
+  <si>
+    <t>English, French, Mauritian Creole</t>
   </si>
   <si>
     <t>Romanian</t>
@@ -2342,16 +2281,16 @@
     <t>Montenegrin</t>
   </si>
   <si>
-    <t>Arabic,Berber</t>
+    <t>Arabic, Berber</t>
   </si>
   <si>
     <t>Burmese</t>
   </si>
   <si>
-    <t>Kwangali,Ndonga,Lozi,Lozi,Kwangali,Ndonga,Khoekhoe,Khoekhoe,Herero,Herero,English,English,German,German,Afrikaans,Afrikaans,Tswana,Tswana</t>
-  </si>
-  <si>
-    <t>Nauru,English</t>
+    <t>Afrikaans, English, German, Herero, Khoekhoe, Kwangali, Lozi, Ndonga, Tswana</t>
+  </si>
+  <si>
+    <t>English, Nauru</t>
   </si>
   <si>
     <t>Nepali</t>
@@ -2360,16 +2299,16 @@
     <t>Dutch</t>
   </si>
   <si>
-    <t>Māori,English,New Zealand Sign Language</t>
-  </si>
-  <si>
-    <t>Niuean,English</t>
-  </si>
-  <si>
-    <t>Norfuk,English</t>
-  </si>
-  <si>
-    <t>Carolinian,English,Chamorro</t>
+    <t>English, Māori, New Zealand Sign Language</t>
+  </si>
+  <si>
+    <t>English, Niuean</t>
+  </si>
+  <si>
+    <t>English, Norfuk</t>
+  </si>
+  <si>
+    <t>Carolinian, Chamorro, English</t>
   </si>
   <si>
     <t>Korean</t>
@@ -2378,55 +2317,49 @@
     <t>Macedonian</t>
   </si>
   <si>
-    <t>Norwegian Nynorsk,Sami,Norwegian Bokmål</t>
-  </si>
-  <si>
-    <t>Urdu,English</t>
-  </si>
-  <si>
-    <t>Palauan,English</t>
-  </si>
-  <si>
-    <t>Arabic,Arabic,Arabic,Arabic,Arabic,Arabic</t>
-  </si>
-  <si>
-    <t>Tok Pisin,Hiri Motu,English</t>
-  </si>
-  <si>
-    <t>Guaraní,Spanish</t>
-  </si>
-  <si>
-    <t>Aymara,Spanish,Quechua</t>
-  </si>
-  <si>
-    <t>English,Filipino</t>
+    <t>Norwegian Bokmål, Norwegian Nynorsk, Sami</t>
+  </si>
+  <si>
+    <t>English, Urdu</t>
+  </si>
+  <si>
+    <t>English, Palauan</t>
+  </si>
+  <si>
+    <t>English, Hiri Motu, Tok Pisin</t>
+  </si>
+  <si>
+    <t>Aymara, Quechua, Spanish</t>
+  </si>
+  <si>
+    <t>English, Filipino</t>
   </si>
   <si>
     <t>Polish</t>
   </si>
   <si>
-    <t>English,Spanish</t>
-  </si>
-  <si>
-    <t>French,Kikongo,Lingala</t>
+    <t>English, Spanish</t>
+  </si>
+  <si>
+    <t>French, Kikongo, Lingala</t>
   </si>
   <si>
     <t>Russian</t>
   </si>
   <si>
-    <t>English,French,Kinyarwanda</t>
+    <t>English, French, Kinyarwanda</t>
   </si>
   <si>
     <t>Serbian</t>
   </si>
   <si>
-    <t>French,English,Seychellois Creole</t>
-  </si>
-  <si>
-    <t>Tamil,Malay,Chinese,English</t>
-  </si>
-  <si>
-    <t>English,French,Dutch</t>
+    <t>English, French, Seychellois Creole</t>
+  </si>
+  <si>
+    <t>Chinese, English, Malay, Tamil</t>
+  </si>
+  <si>
+    <t>Dutch, English, French</t>
   </si>
   <si>
     <t>Slovak</t>
@@ -2435,67 +2368,64 @@
     <t>Slovene</t>
   </si>
   <si>
-    <t>Arabic,Somali</t>
-  </si>
-  <si>
-    <t>Sotho,Sotho,Swazi,Swazi,Swazi,Tswana,Tswana,Tswana,Tsonga,Tsonga,Tsonga,Venda,Venda,Venda,Xhosa,Xhosa,Xhosa,Zulu,Zulu,Zulu,Northern Sotho,Northern Sotho,Northern Sotho,Southern Ndebele,Southern Ndebele,Southern Ndebele,English,English,English,Afrikaans,Afrikaans,Afrikaans,Sotho</t>
-  </si>
-  <si>
-    <t>Sinhala,Tamil</t>
-  </si>
-  <si>
-    <t>English,Arabic</t>
-  </si>
-  <si>
-    <t>Swiss German,French,Romansh,Italian</t>
-  </si>
-  <si>
-    <t>Tajik,Russian</t>
+    <t>Arabic, Somali</t>
+  </si>
+  <si>
+    <t>Afrikaans, English, Northern Sotho, Sotho, Southern Ndebele, Swazi, Tsonga, Tswana, Venda, Xhosa, Zulu</t>
+  </si>
+  <si>
+    <t>Sinhala, Tamil</t>
+  </si>
+  <si>
+    <t>Arabic, English</t>
+  </si>
+  <si>
+    <t>French, Italian, Romansh, Swiss German</t>
+  </si>
+  <si>
+    <t>Russian, Tajik</t>
   </si>
   <si>
     <t>Thai</t>
   </si>
   <si>
-    <t>Tetum,Portuguese</t>
-  </si>
-  <si>
-    <t>Tokelauan,Samoan,English</t>
-  </si>
-  <si>
-    <t>English,Tongan</t>
+    <t>Portuguese, Tetum</t>
+  </si>
+  <si>
+    <t>English, Samoan, Tokelauan</t>
+  </si>
+  <si>
+    <t>English, Tongan</t>
   </si>
   <si>
     <t>Turkish</t>
   </si>
   <si>
-    <t>Russian,Turkmen</t>
-  </si>
-  <si>
-    <t>English,Tuvaluan,Tuvaluan,English</t>
-  </si>
-  <si>
-    <t>Swahili,English</t>
+    <t>Russian, Turkmen</t>
+  </si>
+  <si>
+    <t>English, Tuvaluan</t>
   </si>
   <si>
     <t>Ukrainian</t>
   </si>
   <si>
-    <t>Russian,Uzbek</t>
-  </si>
-  <si>
-    <t>French,English,Bislama</t>
-  </si>
-  <si>
-    <t>Italian,Latin</t>
+    <t>Russian, Uzbek</t>
+  </si>
+  <si>
+    <t>Bislama, English, French</t>
+  </si>
+  <si>
+    <t>Italian, Latin</t>
   </si>
   <si>
     <t>Vietnamese</t>
   </si>
   <si>
-    <t>Spanish,Spanish,Berber,Spanish,Berber,Berber,Hassaniya,Hassaniya,Hassaniya</t>
-  </si>
-  <si>
-    <t>Chibarwe,English,Tswana,Tonga,Sotho,Shona,Chewa,Northern Ndebele,Ndau,Khoisan,Venda,Xhosa,Zimbabwean Sign Language,Kalanga,Tsonga</t>
+    <t>Berber, Hassaniya, Spanish</t>
+  </si>
+  <si>
+    <t>Chewa, Chibarwe, English, Kalanga, Khoisan, Ndau, Northern Ndebele, Shona, Sotho, Tonga, Tsonga, Tswana, Venda, Xhosa, Zimbabwean Sign Language</t>
   </si>
   <si>
     <t>🇦🇫</t>
@@ -3316,129 +3246,6 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Metricas!$B$2:$B$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="2"/>
-        <c:axId val="50010001"/>
-        <c:axId val="50010002"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="50010001"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50010002"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="50010002"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50010001"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Cantidad de Paises en cada Continente"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3772,13 +3579,13 @@
         <v>263</v>
       </c>
       <c r="F2" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="G2" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="H2" t="s">
-        <v>827</v>
+        <v>804</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3798,13 +3605,13 @@
         <v>264</v>
       </c>
       <c r="F3" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="G3" t="s">
-        <v>682</v>
+        <v>666</v>
       </c>
       <c r="H3" t="s">
-        <v>828</v>
+        <v>805</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3824,13 +3631,13 @@
         <v>265</v>
       </c>
       <c r="F4" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="G4" t="s">
-        <v>683</v>
+        <v>667</v>
       </c>
       <c r="H4" t="s">
-        <v>829</v>
+        <v>806</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3850,13 +3657,13 @@
         <v>266</v>
       </c>
       <c r="F5" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="G5" t="s">
-        <v>684</v>
+        <v>668</v>
       </c>
       <c r="H5" t="s">
-        <v>830</v>
+        <v>807</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3876,13 +3683,13 @@
         <v>267</v>
       </c>
       <c r="F6" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="G6" t="s">
-        <v>685</v>
+        <v>669</v>
       </c>
       <c r="H6" t="s">
-        <v>831</v>
+        <v>808</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3902,13 +3709,13 @@
         <v>268</v>
       </c>
       <c r="F7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="G7" t="s">
-        <v>686</v>
+        <v>670</v>
       </c>
       <c r="H7" t="s">
-        <v>832</v>
+        <v>809</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3928,13 +3735,13 @@
         <v>269</v>
       </c>
       <c r="F8" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="G8" t="s">
-        <v>687</v>
+        <v>671</v>
       </c>
       <c r="H8" t="s">
-        <v>833</v>
+        <v>810</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3954,13 +3761,13 @@
         <v>270</v>
       </c>
       <c r="F9" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="G9" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="H9" t="s">
-        <v>834</v>
+        <v>811</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3977,7 +3784,7 @@
         <v>1000</v>
       </c>
       <c r="H10" t="s">
-        <v>835</v>
+        <v>812</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3997,13 +3804,13 @@
         <v>271</v>
       </c>
       <c r="F11" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="G11" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="H11" t="s">
-        <v>836</v>
+        <v>813</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4023,13 +3830,13 @@
         <v>272</v>
       </c>
       <c r="F12" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="G12" t="s">
-        <v>689</v>
+        <v>673</v>
       </c>
       <c r="H12" t="s">
-        <v>837</v>
+        <v>814</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -4049,13 +3856,13 @@
         <v>273</v>
       </c>
       <c r="F13" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="G13" t="s">
-        <v>690</v>
+        <v>674</v>
       </c>
       <c r="H13" t="s">
-        <v>838</v>
+        <v>815</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -4075,13 +3882,13 @@
         <v>274</v>
       </c>
       <c r="F14" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="G14" t="s">
-        <v>691</v>
+        <v>675</v>
       </c>
       <c r="H14" t="s">
-        <v>839</v>
+        <v>816</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -4101,13 +3908,13 @@
         <v>275</v>
       </c>
       <c r="F15" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="G15" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="H15" t="s">
-        <v>840</v>
+        <v>817</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -4127,13 +3934,13 @@
         <v>276</v>
       </c>
       <c r="F16" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="G16" t="s">
-        <v>692</v>
+        <v>676</v>
       </c>
       <c r="H16" t="s">
-        <v>841</v>
+        <v>818</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -4153,13 +3960,13 @@
         <v>277</v>
       </c>
       <c r="F17" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="G17" t="s">
-        <v>693</v>
+        <v>677</v>
       </c>
       <c r="H17" t="s">
-        <v>842</v>
+        <v>819</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -4179,13 +3986,13 @@
         <v>278</v>
       </c>
       <c r="F18" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="G18" t="s">
-        <v>694</v>
+        <v>672</v>
       </c>
       <c r="H18" t="s">
-        <v>843</v>
+        <v>820</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -4205,13 +4012,13 @@
         <v>279</v>
       </c>
       <c r="F19" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="G19" t="s">
-        <v>684</v>
+        <v>668</v>
       </c>
       <c r="H19" t="s">
-        <v>844</v>
+        <v>821</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -4231,13 +4038,13 @@
         <v>280</v>
       </c>
       <c r="F20" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="G20" t="s">
-        <v>695</v>
+        <v>678</v>
       </c>
       <c r="H20" t="s">
-        <v>845</v>
+        <v>822</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -4257,13 +4064,13 @@
         <v>281</v>
       </c>
       <c r="F21" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="G21" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="H21" t="s">
-        <v>846</v>
+        <v>823</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -4283,13 +4090,13 @@
         <v>282</v>
       </c>
       <c r="F22" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G22" t="s">
-        <v>696</v>
+        <v>679</v>
       </c>
       <c r="H22" t="s">
-        <v>847</v>
+        <v>824</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -4309,13 +4116,13 @@
         <v>283</v>
       </c>
       <c r="F23" t="s">
-        <v>523</v>
+        <v>503</v>
       </c>
       <c r="G23" t="s">
-        <v>697</v>
+        <v>680</v>
       </c>
       <c r="H23" t="s">
-        <v>848</v>
+        <v>825</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -4335,13 +4142,13 @@
         <v>284</v>
       </c>
       <c r="F24" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="G24" t="s">
-        <v>698</v>
+        <v>681</v>
       </c>
       <c r="H24" t="s">
-        <v>849</v>
+        <v>826</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -4361,13 +4168,13 @@
         <v>285</v>
       </c>
       <c r="F25" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="G25" t="s">
-        <v>699</v>
+        <v>682</v>
       </c>
       <c r="H25" t="s">
-        <v>850</v>
+        <v>827</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -4387,13 +4194,13 @@
         <v>286</v>
       </c>
       <c r="F26" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="G26" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="H26" t="s">
-        <v>851</v>
+        <v>828</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -4413,13 +4220,13 @@
         <v>287</v>
       </c>
       <c r="F27" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="G27" t="s">
-        <v>700</v>
+        <v>683</v>
       </c>
       <c r="H27" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -4439,13 +4246,13 @@
         <v>288</v>
       </c>
       <c r="F28" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="G28" t="s">
-        <v>701</v>
+        <v>684</v>
       </c>
       <c r="H28" t="s">
-        <v>853</v>
+        <v>830</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -4465,13 +4272,13 @@
         <v>289</v>
       </c>
       <c r="F29" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="G29" t="s">
-        <v>702</v>
+        <v>685</v>
       </c>
       <c r="H29" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -4491,13 +4298,13 @@
         <v>290</v>
       </c>
       <c r="F30" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="G30" t="s">
-        <v>703</v>
+        <v>686</v>
       </c>
       <c r="H30" t="s">
-        <v>855</v>
+        <v>832</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -4514,10 +4321,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>704</v>
+        <v>687</v>
       </c>
       <c r="H31" t="s">
-        <v>856</v>
+        <v>833</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -4537,13 +4344,13 @@
         <v>291</v>
       </c>
       <c r="F32" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="G32" t="s">
-        <v>687</v>
+        <v>671</v>
       </c>
       <c r="H32" t="s">
-        <v>857</v>
+        <v>834</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -4563,13 +4370,13 @@
         <v>292</v>
       </c>
       <c r="F33" t="s">
-        <v>532</v>
+        <v>506</v>
       </c>
       <c r="G33" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="H33" t="s">
-        <v>858</v>
+        <v>835</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -4589,13 +4396,13 @@
         <v>293</v>
       </c>
       <c r="F34" t="s">
-        <v>532</v>
+        <v>506</v>
       </c>
       <c r="G34" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="H34" t="s">
-        <v>859</v>
+        <v>836</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -4615,13 +4422,13 @@
         <v>294</v>
       </c>
       <c r="F35" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="G35" t="s">
-        <v>705</v>
+        <v>688</v>
       </c>
       <c r="H35" t="s">
-        <v>860</v>
+        <v>837</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -4641,13 +4448,13 @@
         <v>295</v>
       </c>
       <c r="F36" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="G36" t="s">
-        <v>706</v>
+        <v>689</v>
       </c>
       <c r="H36" t="s">
-        <v>861</v>
+        <v>838</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -4667,13 +4474,13 @@
         <v>296</v>
       </c>
       <c r="F37" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="G37" t="s">
-        <v>699</v>
+        <v>682</v>
       </c>
       <c r="H37" t="s">
-        <v>862</v>
+        <v>839</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -4693,13 +4500,13 @@
         <v>297</v>
       </c>
       <c r="F38" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="G38" t="s">
-        <v>707</v>
+        <v>690</v>
       </c>
       <c r="H38" t="s">
-        <v>863</v>
+        <v>840</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -4719,13 +4526,13 @@
         <v>298</v>
       </c>
       <c r="F39" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="G39" t="s">
-        <v>708</v>
+        <v>691</v>
       </c>
       <c r="H39" t="s">
-        <v>864</v>
+        <v>841</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -4745,13 +4552,13 @@
         <v>299</v>
       </c>
       <c r="F40" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="G40" t="s">
-        <v>709</v>
+        <v>692</v>
       </c>
       <c r="H40" t="s">
-        <v>865</v>
+        <v>842</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -4771,13 +4578,13 @@
         <v>300</v>
       </c>
       <c r="F41" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="G41" t="s">
-        <v>710</v>
+        <v>692</v>
       </c>
       <c r="H41" t="s">
-        <v>866</v>
+        <v>843</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -4797,13 +4604,13 @@
         <v>301</v>
       </c>
       <c r="F42" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="G42" t="s">
-        <v>687</v>
+        <v>671</v>
       </c>
       <c r="H42" t="s">
-        <v>867</v>
+        <v>844</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -4823,13 +4630,13 @@
         <v>302</v>
       </c>
       <c r="F43" t="s">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="G43" t="s">
-        <v>711</v>
+        <v>693</v>
       </c>
       <c r="H43" t="s">
-        <v>868</v>
+        <v>845</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -4849,13 +4656,13 @@
         <v>303</v>
       </c>
       <c r="F44" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="G44" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="H44" t="s">
-        <v>869</v>
+        <v>846</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -4875,13 +4682,13 @@
         <v>304</v>
       </c>
       <c r="F45" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="G45" t="s">
-        <v>712</v>
+        <v>694</v>
       </c>
       <c r="H45" t="s">
-        <v>870</v>
+        <v>847</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -4901,13 +4708,13 @@
         <v>305</v>
       </c>
       <c r="F46" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="G46" t="s">
-        <v>713</v>
+        <v>695</v>
       </c>
       <c r="H46" t="s">
-        <v>871</v>
+        <v>848</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -4927,13 +4734,13 @@
         <v>306</v>
       </c>
       <c r="F47" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="G47" t="s">
-        <v>714</v>
+        <v>696</v>
       </c>
       <c r="H47" t="s">
-        <v>872</v>
+        <v>849</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -4953,13 +4760,13 @@
         <v>307</v>
       </c>
       <c r="F48" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="G48" t="s">
-        <v>715</v>
+        <v>697</v>
       </c>
       <c r="H48" t="s">
-        <v>873</v>
+        <v>850</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -4979,13 +4786,13 @@
         <v>308</v>
       </c>
       <c r="F49" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="G49" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="H49" t="s">
-        <v>874</v>
+        <v>851</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -5005,13 +4812,13 @@
         <v>309</v>
       </c>
       <c r="F50" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="G50" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="H50" t="s">
-        <v>875</v>
+        <v>852</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -5031,13 +4838,13 @@
         <v>310</v>
       </c>
       <c r="F51" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="G51" t="s">
-        <v>714</v>
+        <v>696</v>
       </c>
       <c r="H51" t="s">
-        <v>876</v>
+        <v>853</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -5057,13 +4864,13 @@
         <v>311</v>
       </c>
       <c r="F52" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="G52" t="s">
-        <v>716</v>
+        <v>698</v>
       </c>
       <c r="H52" t="s">
-        <v>877</v>
+        <v>854</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -5083,13 +4890,13 @@
         <v>312</v>
       </c>
       <c r="F53" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="G53" t="s">
-        <v>717</v>
+        <v>699</v>
       </c>
       <c r="H53" t="s">
-        <v>878</v>
+        <v>855</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -5109,13 +4916,13 @@
         <v>313</v>
       </c>
       <c r="F54" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="G54" t="s">
-        <v>714</v>
+        <v>696</v>
       </c>
       <c r="H54" t="s">
-        <v>879</v>
+        <v>856</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -5135,13 +4942,13 @@
         <v>314</v>
       </c>
       <c r="F55" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="G55" t="s">
-        <v>718</v>
+        <v>700</v>
       </c>
       <c r="H55" t="s">
-        <v>880</v>
+        <v>857</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -5161,13 +4968,13 @@
         <v>315</v>
       </c>
       <c r="F56" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="G56" t="s">
-        <v>719</v>
+        <v>696</v>
       </c>
       <c r="H56" t="s">
-        <v>881</v>
+        <v>858</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -5187,13 +4994,13 @@
         <v>316</v>
       </c>
       <c r="F57" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="G57" t="s">
-        <v>720</v>
+        <v>693</v>
       </c>
       <c r="H57" t="s">
-        <v>882</v>
+        <v>859</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -5213,13 +5020,13 @@
         <v>317</v>
       </c>
       <c r="F58" t="s">
-        <v>550</v>
+        <v>503</v>
       </c>
       <c r="G58" t="s">
-        <v>721</v>
+        <v>701</v>
       </c>
       <c r="H58" t="s">
-        <v>883</v>
+        <v>860</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -5239,13 +5046,13 @@
         <v>318</v>
       </c>
       <c r="F59" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="G59" t="s">
-        <v>722</v>
+        <v>702</v>
       </c>
       <c r="H59" t="s">
-        <v>884</v>
+        <v>861</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -5265,13 +5072,13 @@
         <v>319</v>
       </c>
       <c r="F60" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="G60" t="s">
-        <v>723</v>
+        <v>703</v>
       </c>
       <c r="H60" t="s">
-        <v>885</v>
+        <v>862</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -5288,16 +5095,16 @@
         <v>988002</v>
       </c>
       <c r="E61" t="s">
-        <v>320</v>
+        <v>66</v>
       </c>
       <c r="F61" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="G61" t="s">
-        <v>713</v>
+        <v>695</v>
       </c>
       <c r="H61" t="s">
-        <v>886</v>
+        <v>863</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -5314,16 +5121,16 @@
         <v>71991</v>
       </c>
       <c r="E62" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F62" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="G62" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="H62" t="s">
-        <v>887</v>
+        <v>864</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -5340,16 +5147,16 @@
         <v>10847904</v>
       </c>
       <c r="E63" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F63" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="G63" t="s">
-        <v>714</v>
+        <v>696</v>
       </c>
       <c r="H63" t="s">
-        <v>888</v>
+        <v>865</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -5366,16 +5173,16 @@
         <v>108407721</v>
       </c>
       <c r="E64" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F64" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="G64" t="s">
-        <v>724</v>
+        <v>704</v>
       </c>
       <c r="H64" t="s">
-        <v>889</v>
+        <v>866</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -5392,16 +5199,16 @@
         <v>17643060</v>
       </c>
       <c r="E65" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F65" t="s">
-        <v>532</v>
+        <v>506</v>
       </c>
       <c r="G65" t="s">
-        <v>714</v>
+        <v>696</v>
       </c>
       <c r="H65" t="s">
-        <v>890</v>
+        <v>867</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -5418,16 +5225,16 @@
         <v>102334403</v>
       </c>
       <c r="E66" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F66" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="G66" t="s">
-        <v>684</v>
+        <v>668</v>
       </c>
       <c r="H66" t="s">
-        <v>891</v>
+        <v>868</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -5444,16 +5251,16 @@
         <v>6486201</v>
       </c>
       <c r="E67" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F67" t="s">
-        <v>532</v>
+        <v>506</v>
       </c>
       <c r="G67" t="s">
-        <v>714</v>
+        <v>696</v>
       </c>
       <c r="H67" t="s">
-        <v>892</v>
+        <v>869</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -5470,16 +5277,16 @@
         <v>1402985</v>
       </c>
       <c r="E68" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F68" t="s">
-        <v>557</v>
+        <v>531</v>
       </c>
       <c r="G68" t="s">
-        <v>725</v>
+        <v>705</v>
       </c>
       <c r="H68" t="s">
-        <v>893</v>
+        <v>870</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -5496,16 +5303,16 @@
         <v>5352000</v>
       </c>
       <c r="E69" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F69" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="G69" t="s">
-        <v>726</v>
+        <v>706</v>
       </c>
       <c r="H69" t="s">
-        <v>894</v>
+        <v>871</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -5522,16 +5329,16 @@
         <v>1331057</v>
       </c>
       <c r="E70" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F70" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="G70" t="s">
-        <v>727</v>
+        <v>707</v>
       </c>
       <c r="H70" t="s">
-        <v>895</v>
+        <v>872</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -5548,16 +5355,16 @@
         <v>1160164</v>
       </c>
       <c r="E71" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F71" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="G71" t="s">
-        <v>728</v>
+        <v>708</v>
       </c>
       <c r="H71" t="s">
-        <v>896</v>
+        <v>873</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -5574,16 +5381,16 @@
         <v>114963583</v>
       </c>
       <c r="E72" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F72" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="G72" t="s">
-        <v>729</v>
+        <v>709</v>
       </c>
       <c r="H72" t="s">
-        <v>897</v>
+        <v>874</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -5600,16 +5407,16 @@
         <v>2563</v>
       </c>
       <c r="E73" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F73" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="G73" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="H73" t="s">
-        <v>898</v>
+        <v>875</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -5626,16 +5433,16 @@
         <v>48865</v>
       </c>
       <c r="E74" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F74" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="G74" t="s">
-        <v>730</v>
+        <v>710</v>
       </c>
       <c r="H74" t="s">
-        <v>899</v>
+        <v>876</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -5652,16 +5459,16 @@
         <v>896444</v>
       </c>
       <c r="E75" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F75" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="G75" t="s">
-        <v>731</v>
+        <v>711</v>
       </c>
       <c r="H75" t="s">
-        <v>900</v>
+        <v>877</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -5678,16 +5485,16 @@
         <v>5530719</v>
       </c>
       <c r="E76" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F76" t="s">
-        <v>550</v>
+        <v>503</v>
       </c>
       <c r="G76" t="s">
-        <v>732</v>
+        <v>712</v>
       </c>
       <c r="H76" t="s">
-        <v>901</v>
+        <v>878</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -5704,16 +5511,16 @@
         <v>67391582</v>
       </c>
       <c r="E77" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F77" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="G77" t="s">
-        <v>699</v>
+        <v>682</v>
       </c>
       <c r="H77" t="s">
-        <v>902</v>
+        <v>879</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -5730,16 +5537,16 @@
         <v>254541</v>
       </c>
       <c r="E78" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F78" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="G78" t="s">
-        <v>699</v>
+        <v>682</v>
       </c>
       <c r="H78" t="s">
-        <v>903</v>
+        <v>880</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -5756,16 +5563,16 @@
         <v>280904</v>
       </c>
       <c r="E79" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F79" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="G79" t="s">
-        <v>699</v>
+        <v>682</v>
       </c>
       <c r="H79" t="s">
-        <v>904</v>
+        <v>881</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -5782,16 +5589,16 @@
         <v>400</v>
       </c>
       <c r="E80" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F80" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="G80" t="s">
-        <v>699</v>
+        <v>682</v>
       </c>
       <c r="H80" t="s">
-        <v>905</v>
+        <v>882</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -5808,16 +5615,16 @@
         <v>2225728</v>
       </c>
       <c r="E81" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F81" t="s">
-        <v>565</v>
+        <v>531</v>
       </c>
       <c r="G81" t="s">
-        <v>699</v>
+        <v>682</v>
       </c>
       <c r="H81" t="s">
-        <v>906</v>
+        <v>883</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -5834,16 +5641,16 @@
         <v>2416664</v>
       </c>
       <c r="E82" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F82" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="G82" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="H82" t="s">
-        <v>907</v>
+        <v>884</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -5860,16 +5667,16 @@
         <v>3714000</v>
       </c>
       <c r="E83" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F83" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="G83" t="s">
-        <v>733</v>
+        <v>713</v>
       </c>
       <c r="H83" t="s">
-        <v>908</v>
+        <v>885</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -5886,16 +5693,16 @@
         <v>83240525</v>
       </c>
       <c r="E84" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F84" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="G84" t="s">
-        <v>692</v>
+        <v>676</v>
       </c>
       <c r="H84" t="s">
-        <v>909</v>
+        <v>886</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -5912,16 +5719,16 @@
         <v>31072945</v>
       </c>
       <c r="E85" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F85" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="G85" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="H85" t="s">
-        <v>910</v>
+        <v>887</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -5941,13 +5748,13 @@
         <v>91</v>
       </c>
       <c r="F86" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="G86" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="H86" t="s">
-        <v>911</v>
+        <v>888</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -5964,16 +5771,16 @@
         <v>10715549</v>
       </c>
       <c r="E87" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F87" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="G87" t="s">
-        <v>734</v>
+        <v>714</v>
       </c>
       <c r="H87" t="s">
-        <v>912</v>
+        <v>889</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -5990,16 +5797,16 @@
         <v>56367</v>
       </c>
       <c r="E88" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F88" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="G88" t="s">
-        <v>735</v>
+        <v>715</v>
       </c>
       <c r="H88" t="s">
-        <v>913</v>
+        <v>890</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -6016,16 +5823,16 @@
         <v>112519</v>
       </c>
       <c r="E89" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F89" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="G89" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="H89" t="s">
-        <v>914</v>
+        <v>891</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -6042,16 +5849,16 @@
         <v>400132</v>
       </c>
       <c r="E90" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F90" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="G90" t="s">
-        <v>699</v>
+        <v>682</v>
       </c>
       <c r="H90" t="s">
-        <v>915</v>
+        <v>892</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -6068,16 +5875,16 @@
         <v>168783</v>
       </c>
       <c r="E91" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F91" t="s">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="G91" t="s">
-        <v>736</v>
+        <v>716</v>
       </c>
       <c r="H91" t="s">
-        <v>916</v>
+        <v>893</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -6094,16 +5901,16 @@
         <v>16858333</v>
       </c>
       <c r="E92" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F92" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="G92" t="s">
-        <v>714</v>
+        <v>696</v>
       </c>
       <c r="H92" t="s">
-        <v>917</v>
+        <v>894</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -6120,16 +5927,16 @@
         <v>62999</v>
       </c>
       <c r="E93" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F93" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="G93" t="s">
-        <v>737</v>
+        <v>717</v>
       </c>
       <c r="H93" t="s">
-        <v>918</v>
+        <v>895</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -6146,16 +5953,16 @@
         <v>13132792</v>
       </c>
       <c r="E94" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F94" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="G94" t="s">
-        <v>699</v>
+        <v>682</v>
       </c>
       <c r="H94" t="s">
-        <v>919</v>
+        <v>896</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -6172,16 +5979,16 @@
         <v>1967998</v>
       </c>
       <c r="E95" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F95" t="s">
-        <v>573</v>
+        <v>520</v>
       </c>
       <c r="G95" t="s">
-        <v>738</v>
+        <v>718</v>
       </c>
       <c r="H95" t="s">
-        <v>920</v>
+        <v>897</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -6198,16 +6005,16 @@
         <v>786559</v>
       </c>
       <c r="E96" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F96" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="G96" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="H96" t="s">
-        <v>921</v>
+        <v>898</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -6224,16 +6031,16 @@
         <v>11402533</v>
       </c>
       <c r="E97" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F97" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="G97" t="s">
-        <v>739</v>
+        <v>719</v>
       </c>
       <c r="H97" t="s">
-        <v>922</v>
+        <v>899</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -6250,10 +6057,10 @@
         <v>0</v>
       </c>
       <c r="G98" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="H98" t="s">
-        <v>923</v>
+        <v>900</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -6270,16 +6077,16 @@
         <v>9904608</v>
       </c>
       <c r="E99" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F99" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="G99" t="s">
-        <v>714</v>
+        <v>696</v>
       </c>
       <c r="H99" t="s">
-        <v>924</v>
+        <v>901</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -6296,16 +6103,16 @@
         <v>7500700</v>
       </c>
       <c r="E100" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F100" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="G100" t="s">
-        <v>740</v>
+        <v>720</v>
       </c>
       <c r="H100" t="s">
-        <v>925</v>
+        <v>902</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -6322,16 +6129,16 @@
         <v>9749763</v>
       </c>
       <c r="E101" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F101" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="G101" t="s">
-        <v>741</v>
+        <v>721</v>
       </c>
       <c r="H101" t="s">
-        <v>926</v>
+        <v>903</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -6348,16 +6155,16 @@
         <v>366425</v>
       </c>
       <c r="E102" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F102" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="G102" t="s">
-        <v>742</v>
+        <v>722</v>
       </c>
       <c r="H102" t="s">
-        <v>927</v>
+        <v>904</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -6374,16 +6181,16 @@
         <v>1380004385</v>
       </c>
       <c r="E103" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F103" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="G103" t="s">
-        <v>743</v>
+        <v>723</v>
       </c>
       <c r="H103" t="s">
-        <v>928</v>
+        <v>905</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -6400,16 +6207,16 @@
         <v>273523621</v>
       </c>
       <c r="E104" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F104" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="G104" t="s">
-        <v>744</v>
+        <v>724</v>
       </c>
       <c r="H104" t="s">
-        <v>929</v>
+        <v>906</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -6426,16 +6233,16 @@
         <v>83992953</v>
       </c>
       <c r="E105" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F105" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="G105" t="s">
-        <v>745</v>
+        <v>725</v>
       </c>
       <c r="H105" t="s">
-        <v>930</v>
+        <v>907</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -6452,16 +6259,16 @@
         <v>40222503</v>
       </c>
       <c r="E106" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F106" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="G106" t="s">
-        <v>746</v>
+        <v>726</v>
       </c>
       <c r="H106" t="s">
-        <v>931</v>
+        <v>908</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -6478,16 +6285,16 @@
         <v>4994724</v>
       </c>
       <c r="E107" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F107" t="s">
-        <v>550</v>
+        <v>503</v>
       </c>
       <c r="G107" t="s">
-        <v>747</v>
+        <v>727</v>
       </c>
       <c r="H107" t="s">
-        <v>932</v>
+        <v>909</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -6504,16 +6311,16 @@
         <v>85032</v>
       </c>
       <c r="E108" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F108" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="G108" t="s">
-        <v>748</v>
+        <v>728</v>
       </c>
       <c r="H108" t="s">
-        <v>933</v>
+        <v>910</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -6530,16 +6337,16 @@
         <v>9216900</v>
       </c>
       <c r="E109" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F109" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="G109" t="s">
-        <v>749</v>
+        <v>729</v>
       </c>
       <c r="H109" t="s">
-        <v>934</v>
+        <v>911</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -6556,16 +6363,16 @@
         <v>59554023</v>
       </c>
       <c r="E110" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F110" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="G110" t="s">
-        <v>750</v>
+        <v>730</v>
       </c>
       <c r="H110" t="s">
-        <v>935</v>
+        <v>912</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -6582,16 +6389,16 @@
         <v>26378275</v>
       </c>
       <c r="E111" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F111" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="G111" t="s">
-        <v>699</v>
+        <v>682</v>
       </c>
       <c r="H111" t="s">
-        <v>936</v>
+        <v>913</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -6608,16 +6415,16 @@
         <v>2961161</v>
       </c>
       <c r="E112" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F112" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="G112" t="s">
-        <v>751</v>
+        <v>731</v>
       </c>
       <c r="H112" t="s">
-        <v>937</v>
+        <v>914</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -6634,16 +6441,16 @@
         <v>125836021</v>
       </c>
       <c r="E113" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F113" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="G113" t="s">
-        <v>752</v>
+        <v>732</v>
       </c>
       <c r="H113" t="s">
-        <v>938</v>
+        <v>915</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -6660,16 +6467,16 @@
         <v>100800</v>
       </c>
       <c r="E114" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F114" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="G114" t="s">
-        <v>753</v>
+        <v>733</v>
       </c>
       <c r="H114" t="s">
-        <v>939</v>
+        <v>916</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -6686,16 +6493,16 @@
         <v>10203140</v>
       </c>
       <c r="E115" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F115" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="G115" t="s">
-        <v>684</v>
+        <v>668</v>
       </c>
       <c r="H115" t="s">
-        <v>940</v>
+        <v>917</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -6712,16 +6519,16 @@
         <v>18754440</v>
       </c>
       <c r="E116" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F116" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="G116" t="s">
-        <v>754</v>
+        <v>734</v>
       </c>
       <c r="H116" t="s">
-        <v>941</v>
+        <v>918</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -6738,16 +6545,16 @@
         <v>53771300</v>
       </c>
       <c r="E117" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F117" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="G117" t="s">
-        <v>755</v>
+        <v>735</v>
       </c>
       <c r="H117" t="s">
-        <v>942</v>
+        <v>919</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -6764,16 +6571,16 @@
         <v>119446</v>
       </c>
       <c r="E118" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F118" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="G118" t="s">
-        <v>756</v>
+        <v>736</v>
       </c>
       <c r="H118" t="s">
-        <v>943</v>
+        <v>920</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -6790,16 +6597,16 @@
         <v>1775378</v>
       </c>
       <c r="E119" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F119" t="s">
-        <v>550</v>
+        <v>503</v>
       </c>
       <c r="G119" t="s">
-        <v>757</v>
+        <v>737</v>
       </c>
       <c r="H119" t="s">
-        <v>944</v>
+        <v>921</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -6816,16 +6623,16 @@
         <v>4270563</v>
       </c>
       <c r="E120" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F120" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="G120" t="s">
-        <v>684</v>
+        <v>668</v>
       </c>
       <c r="H120" t="s">
-        <v>945</v>
+        <v>922</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -6842,16 +6649,16 @@
         <v>6591600</v>
       </c>
       <c r="E121" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F121" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="G121" t="s">
-        <v>758</v>
+        <v>738</v>
       </c>
       <c r="H121" t="s">
-        <v>946</v>
+        <v>923</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -6868,16 +6675,16 @@
         <v>7275556</v>
       </c>
       <c r="E122" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F122" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="G122" t="s">
-        <v>759</v>
+        <v>739</v>
       </c>
       <c r="H122" t="s">
-        <v>947</v>
+        <v>924</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -6894,16 +6701,16 @@
         <v>1901548</v>
       </c>
       <c r="E123" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F123" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="G123" t="s">
-        <v>760</v>
+        <v>740</v>
       </c>
       <c r="H123" t="s">
-        <v>948</v>
+        <v>925</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -6920,16 +6727,16 @@
         <v>6825442</v>
       </c>
       <c r="E124" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F124" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="G124" t="s">
-        <v>713</v>
+        <v>695</v>
       </c>
       <c r="H124" t="s">
-        <v>949</v>
+        <v>926</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -6946,16 +6753,16 @@
         <v>2142252</v>
       </c>
       <c r="E125" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F125" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
       <c r="G125" t="s">
-        <v>761</v>
+        <v>741</v>
       </c>
       <c r="H125" t="s">
-        <v>950</v>
+        <v>927</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -6972,16 +6779,16 @@
         <v>5057677</v>
       </c>
       <c r="E126" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F126" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="G126" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="H126" t="s">
-        <v>951</v>
+        <v>928</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -6998,16 +6805,16 @@
         <v>6871287</v>
       </c>
       <c r="E127" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F127" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="G127" t="s">
-        <v>684</v>
+        <v>668</v>
       </c>
       <c r="H127" t="s">
-        <v>952</v>
+        <v>929</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -7024,16 +6831,16 @@
         <v>38137</v>
       </c>
       <c r="E128" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F128" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="G128" t="s">
-        <v>692</v>
+        <v>676</v>
       </c>
       <c r="H128" t="s">
-        <v>953</v>
+        <v>930</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -7050,16 +6857,16 @@
         <v>2794700</v>
       </c>
       <c r="E129" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F129" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="G129" t="s">
-        <v>762</v>
+        <v>742</v>
       </c>
       <c r="H129" t="s">
-        <v>954</v>
+        <v>931</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -7076,16 +6883,16 @@
         <v>632275</v>
       </c>
       <c r="E130" t="s">
-        <v>387</v>
+        <v>135</v>
       </c>
       <c r="F130" t="s">
-        <v>523</v>
+        <v>503</v>
       </c>
       <c r="G130" t="s">
-        <v>763</v>
+        <v>743</v>
       </c>
       <c r="H130" t="s">
-        <v>955</v>
+        <v>932</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -7102,13 +6909,13 @@
         <v>649342</v>
       </c>
       <c r="F131" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="G131" t="s">
-        <v>764</v>
+        <v>744</v>
       </c>
       <c r="H131" t="s">
-        <v>956</v>
+        <v>933</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -7125,16 +6932,16 @@
         <v>27691019</v>
       </c>
       <c r="E132" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F132" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="G132" t="s">
-        <v>765</v>
+        <v>745</v>
       </c>
       <c r="H132" t="s">
-        <v>957</v>
+        <v>934</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -7151,16 +6958,16 @@
         <v>19129955</v>
       </c>
       <c r="E133" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F133" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="G133" t="s">
-        <v>766</v>
+        <v>746</v>
       </c>
       <c r="H133" t="s">
-        <v>958</v>
+        <v>935</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -7177,16 +6984,16 @@
         <v>32365998</v>
       </c>
       <c r="E134" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F134" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="G134" t="s">
-        <v>767</v>
+        <v>747</v>
       </c>
       <c r="H134" t="s">
-        <v>959</v>
+        <v>936</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -7203,16 +7010,16 @@
         <v>540542</v>
       </c>
       <c r="E135" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F135" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
       <c r="G135" t="s">
-        <v>768</v>
+        <v>748</v>
       </c>
       <c r="H135" t="s">
-        <v>960</v>
+        <v>937</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -7229,16 +7036,16 @@
         <v>20250834</v>
       </c>
       <c r="E136" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F136" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="G136" t="s">
-        <v>699</v>
+        <v>682</v>
       </c>
       <c r="H136" t="s">
-        <v>961</v>
+        <v>938</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -7255,16 +7062,16 @@
         <v>525285</v>
       </c>
       <c r="E137" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F137" t="s">
-        <v>550</v>
+        <v>503</v>
       </c>
       <c r="G137" t="s">
-        <v>769</v>
+        <v>749</v>
       </c>
       <c r="H137" t="s">
-        <v>962</v>
+        <v>939</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -7281,16 +7088,16 @@
         <v>59194</v>
       </c>
       <c r="E138" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F138" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="G138" t="s">
-        <v>770</v>
+        <v>750</v>
       </c>
       <c r="H138" t="s">
-        <v>963</v>
+        <v>940</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -7307,16 +7114,16 @@
         <v>378243</v>
       </c>
       <c r="E139" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F139" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="G139" t="s">
-        <v>699</v>
+        <v>682</v>
       </c>
       <c r="H139" t="s">
-        <v>964</v>
+        <v>941</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -7333,16 +7140,16 @@
         <v>4649660</v>
       </c>
       <c r="E140" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F140" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="G140" t="s">
-        <v>684</v>
+        <v>668</v>
       </c>
       <c r="H140" t="s">
-        <v>965</v>
+        <v>942</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -7359,16 +7166,16 @@
         <v>1265740</v>
       </c>
       <c r="E141" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F141" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="G141" t="s">
-        <v>771</v>
+        <v>751</v>
       </c>
       <c r="H141" t="s">
-        <v>966</v>
+        <v>943</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -7385,16 +7192,16 @@
         <v>226915</v>
       </c>
       <c r="E142" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F142" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="G142" t="s">
-        <v>699</v>
+        <v>682</v>
       </c>
       <c r="H142" t="s">
-        <v>967</v>
+        <v>944</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -7411,16 +7218,16 @@
         <v>128932753</v>
       </c>
       <c r="E143" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F143" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="G143" t="s">
-        <v>714</v>
+        <v>696</v>
       </c>
       <c r="H143" t="s">
-        <v>968</v>
+        <v>945</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -7437,16 +7244,16 @@
         <v>115021</v>
       </c>
       <c r="E144" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F144" t="s">
-        <v>532</v>
+        <v>506</v>
       </c>
       <c r="G144" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="H144" t="s">
-        <v>969</v>
+        <v>946</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -7463,16 +7270,16 @@
         <v>2617820</v>
       </c>
       <c r="E145" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F145" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="G145" t="s">
-        <v>772</v>
+        <v>752</v>
       </c>
       <c r="H145" t="s">
-        <v>970</v>
+        <v>947</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -7492,13 +7299,13 @@
         <v>151</v>
       </c>
       <c r="F146" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="G146" t="s">
-        <v>699</v>
+        <v>682</v>
       </c>
       <c r="H146" t="s">
-        <v>971</v>
+        <v>948</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -7515,16 +7322,16 @@
         <v>3278292</v>
       </c>
       <c r="E147" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F147" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
       <c r="G147" t="s">
-        <v>773</v>
+        <v>753</v>
       </c>
       <c r="H147" t="s">
-        <v>972</v>
+        <v>949</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -7541,16 +7348,16 @@
         <v>621718</v>
       </c>
       <c r="E148" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F148" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="G148" t="s">
-        <v>774</v>
+        <v>754</v>
       </c>
       <c r="H148" t="s">
-        <v>973</v>
+        <v>950</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -7567,16 +7374,16 @@
         <v>4922</v>
       </c>
       <c r="E149" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F149" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="G149" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="H149" t="s">
-        <v>974</v>
+        <v>951</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -7593,16 +7400,16 @@
         <v>36910558</v>
       </c>
       <c r="E150" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F150" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="G150" t="s">
-        <v>775</v>
+        <v>755</v>
       </c>
       <c r="H150" t="s">
-        <v>975</v>
+        <v>952</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -7619,16 +7426,16 @@
         <v>31255435</v>
       </c>
       <c r="E151" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F151" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
       <c r="G151" t="s">
-        <v>687</v>
+        <v>671</v>
       </c>
       <c r="H151" t="s">
-        <v>976</v>
+        <v>953</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -7645,16 +7452,16 @@
         <v>54409794</v>
       </c>
       <c r="E152" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F152" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
       <c r="G152" t="s">
-        <v>776</v>
+        <v>756</v>
       </c>
       <c r="H152" t="s">
-        <v>977</v>
+        <v>954</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -7671,16 +7478,16 @@
         <v>2540916</v>
       </c>
       <c r="E153" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F153" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="G153" t="s">
-        <v>777</v>
+        <v>757</v>
       </c>
       <c r="H153" t="s">
-        <v>978</v>
+        <v>955</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -7697,16 +7504,16 @@
         <v>10834</v>
       </c>
       <c r="E154" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F154" t="s">
-        <v>615</v>
+        <v>512</v>
       </c>
       <c r="G154" t="s">
-        <v>778</v>
+        <v>758</v>
       </c>
       <c r="H154" t="s">
-        <v>979</v>
+        <v>956</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -7723,16 +7530,16 @@
         <v>29136808</v>
       </c>
       <c r="E155" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F155" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="G155" t="s">
-        <v>779</v>
+        <v>759</v>
       </c>
       <c r="H155" t="s">
-        <v>980</v>
+        <v>957</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -7749,16 +7556,16 @@
         <v>16655799</v>
       </c>
       <c r="E156" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F156" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="G156" t="s">
-        <v>780</v>
+        <v>760</v>
       </c>
       <c r="H156" t="s">
-        <v>981</v>
+        <v>958</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -7775,16 +7582,16 @@
         <v>271960</v>
       </c>
       <c r="E157" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F157" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="G157" t="s">
-        <v>699</v>
+        <v>682</v>
       </c>
       <c r="H157" t="s">
-        <v>982</v>
+        <v>959</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -7801,16 +7608,16 @@
         <v>5084300</v>
       </c>
       <c r="E158" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F158" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="G158" t="s">
-        <v>781</v>
+        <v>761</v>
       </c>
       <c r="H158" t="s">
-        <v>983</v>
+        <v>960</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -7827,16 +7634,16 @@
         <v>6624554</v>
       </c>
       <c r="E159" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F159" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="G159" t="s">
-        <v>714</v>
+        <v>696</v>
       </c>
       <c r="H159" t="s">
-        <v>984</v>
+        <v>961</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -7853,16 +7660,16 @@
         <v>24206636</v>
       </c>
       <c r="E160" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F160" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="G160" t="s">
-        <v>699</v>
+        <v>682</v>
       </c>
       <c r="H160" t="s">
-        <v>985</v>
+        <v>962</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -7879,16 +7686,16 @@
         <v>206139587</v>
       </c>
       <c r="E161" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F161" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="G161" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="H161" t="s">
-        <v>986</v>
+        <v>963</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -7905,16 +7712,16 @@
         <v>1470</v>
       </c>
       <c r="E162" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F162" t="s">
-        <v>620</v>
+        <v>605</v>
       </c>
       <c r="G162" t="s">
-        <v>782</v>
+        <v>762</v>
       </c>
       <c r="H162" t="s">
-        <v>987</v>
+        <v>964</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -7931,16 +7738,16 @@
         <v>2302</v>
       </c>
       <c r="E163" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F163" t="s">
-        <v>615</v>
+        <v>512</v>
       </c>
       <c r="G163" t="s">
-        <v>783</v>
+        <v>763</v>
       </c>
       <c r="H163" t="s">
-        <v>988</v>
+        <v>965</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -7957,16 +7764,16 @@
         <v>57557</v>
       </c>
       <c r="E164" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F164" t="s">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="G164" t="s">
-        <v>784</v>
+        <v>764</v>
       </c>
       <c r="H164" t="s">
-        <v>989</v>
+        <v>966</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -7983,16 +7790,16 @@
         <v>25778815</v>
       </c>
       <c r="E165" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F165" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
       <c r="G165" t="s">
-        <v>785</v>
+        <v>765</v>
       </c>
       <c r="H165" t="s">
-        <v>990</v>
+        <v>967</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -8009,16 +7816,16 @@
         <v>2077132</v>
       </c>
       <c r="E166" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F166" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
       <c r="G166" t="s">
-        <v>786</v>
+        <v>766</v>
       </c>
       <c r="H166" t="s">
-        <v>991</v>
+        <v>968</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -8035,16 +7842,16 @@
         <v>5379475</v>
       </c>
       <c r="E167" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F167" t="s">
-        <v>623</v>
+        <v>544</v>
       </c>
       <c r="G167" t="s">
-        <v>787</v>
+        <v>767</v>
       </c>
       <c r="H167" t="s">
-        <v>992</v>
+        <v>969</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -8061,16 +7868,16 @@
         <v>5106622</v>
       </c>
       <c r="E168" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F168" t="s">
-        <v>624</v>
+        <v>610</v>
       </c>
       <c r="G168" t="s">
-        <v>684</v>
+        <v>668</v>
       </c>
       <c r="H168" t="s">
-        <v>993</v>
+        <v>970</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -8087,16 +7894,16 @@
         <v>220892331</v>
       </c>
       <c r="E169" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F169" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="G169" t="s">
-        <v>788</v>
+        <v>768</v>
       </c>
       <c r="H169" t="s">
-        <v>994</v>
+        <v>971</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -8113,16 +7920,16 @@
         <v>18092</v>
       </c>
       <c r="E170" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F170" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="G170" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="H170" t="s">
-        <v>995</v>
+        <v>972</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -8139,16 +7946,16 @@
         <v>4803269</v>
       </c>
       <c r="E171" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F171" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="G171" t="s">
-        <v>790</v>
+        <v>668</v>
       </c>
       <c r="H171" t="s">
-        <v>996</v>
+        <v>973</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -8165,16 +7972,16 @@
         <v>4314768</v>
       </c>
       <c r="E172" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F172" t="s">
-        <v>627</v>
+        <v>613</v>
       </c>
       <c r="G172" t="s">
-        <v>719</v>
+        <v>696</v>
       </c>
       <c r="H172" t="s">
-        <v>997</v>
+        <v>974</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -8191,16 +7998,16 @@
         <v>8947027</v>
       </c>
       <c r="E173" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F173" t="s">
-        <v>628</v>
+        <v>614</v>
       </c>
       <c r="G173" t="s">
-        <v>791</v>
+        <v>770</v>
       </c>
       <c r="H173" t="s">
-        <v>998</v>
+        <v>975</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -8217,16 +8024,16 @@
         <v>7132530</v>
       </c>
       <c r="E174" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F174" t="s">
-        <v>629</v>
+        <v>615</v>
       </c>
       <c r="G174" t="s">
-        <v>792</v>
+        <v>673</v>
       </c>
       <c r="H174" t="s">
-        <v>999</v>
+        <v>976</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -8243,16 +8050,16 @@
         <v>32971846</v>
       </c>
       <c r="E175" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F175" t="s">
-        <v>630</v>
+        <v>616</v>
       </c>
       <c r="G175" t="s">
-        <v>793</v>
+        <v>771</v>
       </c>
       <c r="H175" t="s">
-        <v>1000</v>
+        <v>977</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -8269,16 +8076,16 @@
         <v>109581085</v>
       </c>
       <c r="E176" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F176" t="s">
-        <v>631</v>
+        <v>617</v>
       </c>
       <c r="G176" t="s">
-        <v>794</v>
+        <v>772</v>
       </c>
       <c r="H176" t="s">
-        <v>1001</v>
+        <v>978</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -8295,16 +8102,16 @@
         <v>56</v>
       </c>
       <c r="E177" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F177" t="s">
-        <v>632</v>
+        <v>605</v>
       </c>
       <c r="G177" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="H177" t="s">
-        <v>1002</v>
+        <v>979</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -8321,16 +8128,16 @@
         <v>37950802</v>
       </c>
       <c r="E178" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F178" t="s">
-        <v>633</v>
+        <v>618</v>
       </c>
       <c r="G178" t="s">
-        <v>795</v>
+        <v>773</v>
       </c>
       <c r="H178" t="s">
-        <v>1003</v>
+        <v>980</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -8347,16 +8154,16 @@
         <v>10305564</v>
       </c>
       <c r="E179" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F179" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="G179" t="s">
-        <v>687</v>
+        <v>671</v>
       </c>
       <c r="H179" t="s">
-        <v>1004</v>
+        <v>981</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -8373,16 +8180,16 @@
         <v>3194034</v>
       </c>
       <c r="E180" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F180" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="G180" t="s">
-        <v>796</v>
+        <v>774</v>
       </c>
       <c r="H180" t="s">
-        <v>1005</v>
+        <v>982</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -8399,16 +8206,16 @@
         <v>2881060</v>
       </c>
       <c r="E181" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F181" t="s">
-        <v>634</v>
+        <v>619</v>
       </c>
       <c r="G181" t="s">
-        <v>684</v>
+        <v>668</v>
       </c>
       <c r="H181" t="s">
-        <v>1006</v>
+        <v>983</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -8425,16 +8232,16 @@
         <v>5657000</v>
       </c>
       <c r="E182" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F182" t="s">
-        <v>557</v>
+        <v>531</v>
       </c>
       <c r="G182" t="s">
-        <v>797</v>
+        <v>775</v>
       </c>
       <c r="H182" t="s">
-        <v>1007</v>
+        <v>984</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -8451,16 +8258,16 @@
         <v>840974</v>
       </c>
       <c r="E183" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F183" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="G183" t="s">
-        <v>699</v>
+        <v>682</v>
       </c>
       <c r="H183" t="s">
-        <v>1008</v>
+        <v>985</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -8477,16 +8284,16 @@
         <v>19286123</v>
       </c>
       <c r="E184" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F184" t="s">
-        <v>635</v>
+        <v>620</v>
       </c>
       <c r="G184" t="s">
-        <v>772</v>
+        <v>752</v>
       </c>
       <c r="H184" t="s">
-        <v>1009</v>
+        <v>986</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -8503,16 +8310,16 @@
         <v>144104080</v>
       </c>
       <c r="E185" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F185" t="s">
-        <v>636</v>
+        <v>621</v>
       </c>
       <c r="G185" t="s">
-        <v>798</v>
+        <v>776</v>
       </c>
       <c r="H185" t="s">
-        <v>1010</v>
+        <v>987</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -8529,16 +8336,16 @@
         <v>12952209</v>
       </c>
       <c r="E186" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F186" t="s">
-        <v>637</v>
+        <v>622</v>
       </c>
       <c r="G186" t="s">
-        <v>799</v>
+        <v>777</v>
       </c>
       <c r="H186" t="s">
-        <v>1011</v>
+        <v>988</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -8555,16 +8362,16 @@
         <v>4255</v>
       </c>
       <c r="E187" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F187" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="G187" t="s">
-        <v>699</v>
+        <v>682</v>
       </c>
       <c r="H187" t="s">
-        <v>1012</v>
+        <v>989</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -8581,16 +8388,16 @@
         <v>53192</v>
       </c>
       <c r="E188" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F188" t="s">
-        <v>638</v>
+        <v>623</v>
       </c>
       <c r="G188" t="s">
-        <v>694</v>
+        <v>672</v>
       </c>
       <c r="H188" t="s">
-        <v>1013</v>
+        <v>990</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -8607,16 +8414,16 @@
         <v>53192</v>
       </c>
       <c r="E189" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F189" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="G189" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="H189" t="s">
-        <v>1014</v>
+        <v>991</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -8633,16 +8440,16 @@
         <v>183629</v>
       </c>
       <c r="E190" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F190" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="G190" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="H190" t="s">
-        <v>1015</v>
+        <v>992</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -8659,16 +8466,16 @@
         <v>38659</v>
       </c>
       <c r="E191" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F191" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="G191" t="s">
-        <v>699</v>
+        <v>682</v>
       </c>
       <c r="H191" t="s">
-        <v>1016</v>
+        <v>993</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -8685,16 +8492,16 @@
         <v>6069</v>
       </c>
       <c r="E192" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F192" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="G192" t="s">
-        <v>699</v>
+        <v>682</v>
       </c>
       <c r="H192" t="s">
-        <v>1017</v>
+        <v>994</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -8711,16 +8518,16 @@
         <v>110947</v>
       </c>
       <c r="E193" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F193" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="G193" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="H193" t="s">
-        <v>1018</v>
+        <v>995</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -8737,16 +8544,16 @@
         <v>198410</v>
       </c>
       <c r="E194" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F194" t="s">
-        <v>639</v>
+        <v>624</v>
       </c>
       <c r="G194" t="s">
-        <v>685</v>
+        <v>669</v>
       </c>
       <c r="H194" t="s">
-        <v>1019</v>
+        <v>996</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -8763,16 +8570,16 @@
         <v>33938</v>
       </c>
       <c r="E195" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F195" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="G195" t="s">
-        <v>750</v>
+        <v>730</v>
       </c>
       <c r="H195" t="s">
-        <v>1020</v>
+        <v>997</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -8789,16 +8596,16 @@
         <v>219161</v>
       </c>
       <c r="E196" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F196" t="s">
-        <v>640</v>
+        <v>625</v>
       </c>
       <c r="G196" t="s">
-        <v>687</v>
+        <v>671</v>
       </c>
       <c r="H196" t="s">
-        <v>1021</v>
+        <v>998</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -8815,16 +8622,16 @@
         <v>34813867</v>
       </c>
       <c r="E197" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F197" t="s">
-        <v>641</v>
+        <v>626</v>
       </c>
       <c r="G197" t="s">
-        <v>684</v>
+        <v>668</v>
       </c>
       <c r="H197" t="s">
-        <v>1022</v>
+        <v>999</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -8841,16 +8648,16 @@
         <v>16743930</v>
       </c>
       <c r="E198" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F198" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="G198" t="s">
-        <v>699</v>
+        <v>682</v>
       </c>
       <c r="H198" t="s">
-        <v>1023</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -8867,16 +8674,16 @@
         <v>6908224</v>
       </c>
       <c r="E199" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F199" t="s">
-        <v>642</v>
+        <v>627</v>
       </c>
       <c r="G199" t="s">
-        <v>800</v>
+        <v>778</v>
       </c>
       <c r="H199" t="s">
-        <v>1024</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -8893,16 +8700,16 @@
         <v>98462</v>
       </c>
       <c r="E200" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F200" t="s">
-        <v>643</v>
+        <v>628</v>
       </c>
       <c r="G200" t="s">
-        <v>801</v>
+        <v>779</v>
       </c>
       <c r="H200" t="s">
-        <v>1025</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -8919,16 +8726,16 @@
         <v>7976985</v>
       </c>
       <c r="E201" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F201" t="s">
-        <v>644</v>
+        <v>629</v>
       </c>
       <c r="G201" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="H201" t="s">
-        <v>1026</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -8945,16 +8752,16 @@
         <v>5685807</v>
       </c>
       <c r="E202" t="s">
-        <v>456</v>
+        <v>207</v>
       </c>
       <c r="F202" t="s">
-        <v>645</v>
+        <v>630</v>
       </c>
       <c r="G202" t="s">
-        <v>802</v>
+        <v>780</v>
       </c>
       <c r="H202" t="s">
-        <v>1027</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -8971,16 +8778,16 @@
         <v>40812</v>
       </c>
       <c r="E203" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F203" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="G203" t="s">
-        <v>803</v>
+        <v>781</v>
       </c>
       <c r="H203" t="s">
-        <v>1028</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -8997,16 +8804,16 @@
         <v>5458827</v>
       </c>
       <c r="E204" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="F204" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="G204" t="s">
-        <v>804</v>
+        <v>782</v>
       </c>
       <c r="H204" t="s">
-        <v>1029</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -9023,16 +8830,16 @@
         <v>2100126</v>
       </c>
       <c r="E205" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F205" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="G205" t="s">
-        <v>805</v>
+        <v>783</v>
       </c>
       <c r="H205" t="s">
-        <v>1030</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -9049,16 +8856,16 @@
         <v>686878</v>
       </c>
       <c r="E206" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="F206" t="s">
-        <v>646</v>
+        <v>631</v>
       </c>
       <c r="G206" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="H206" t="s">
-        <v>1031</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -9075,16 +8882,16 @@
         <v>15893219</v>
       </c>
       <c r="E207" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F207" t="s">
-        <v>647</v>
+        <v>632</v>
       </c>
       <c r="G207" t="s">
-        <v>806</v>
+        <v>784</v>
       </c>
       <c r="H207" t="s">
-        <v>1032</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -9101,16 +8908,16 @@
         <v>59308690</v>
       </c>
       <c r="E208" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="F208" t="s">
-        <v>648</v>
+        <v>633</v>
       </c>
       <c r="G208" t="s">
-        <v>807</v>
+        <v>785</v>
       </c>
       <c r="H208" t="s">
-        <v>1033</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -9127,16 +8934,16 @@
         <v>30</v>
       </c>
       <c r="E209" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F209" t="s">
-        <v>649</v>
+        <v>634</v>
       </c>
       <c r="G209" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="H209" t="s">
-        <v>1034</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -9153,16 +8960,16 @@
         <v>51780579</v>
       </c>
       <c r="E210" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="F210" t="s">
-        <v>650</v>
+        <v>635</v>
       </c>
       <c r="G210" t="s">
-        <v>785</v>
+        <v>765</v>
       </c>
       <c r="H210" t="s">
-        <v>1035</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -9179,16 +8986,16 @@
         <v>11193729</v>
       </c>
       <c r="E211" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="F211" t="s">
-        <v>651</v>
+        <v>636</v>
       </c>
       <c r="G211" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="H211" t="s">
-        <v>1036</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -9205,16 +9012,16 @@
         <v>47351567</v>
       </c>
       <c r="E212" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="F212" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="G212" t="s">
-        <v>714</v>
+        <v>696</v>
       </c>
       <c r="H212" t="s">
-        <v>1037</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -9231,16 +9038,16 @@
         <v>21919000</v>
       </c>
       <c r="E213" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F213" t="s">
-        <v>652</v>
+        <v>637</v>
       </c>
       <c r="G213" t="s">
-        <v>808</v>
+        <v>786</v>
       </c>
       <c r="H213" t="s">
-        <v>1038</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -9257,16 +9064,16 @@
         <v>43849269</v>
       </c>
       <c r="E214" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F214" t="s">
-        <v>653</v>
+        <v>638</v>
       </c>
       <c r="G214" t="s">
-        <v>809</v>
+        <v>787</v>
       </c>
       <c r="H214" t="s">
-        <v>1039</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -9283,16 +9090,16 @@
         <v>586634</v>
       </c>
       <c r="E215" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F215" t="s">
-        <v>654</v>
+        <v>639</v>
       </c>
       <c r="G215" t="s">
-        <v>780</v>
+        <v>760</v>
       </c>
       <c r="H215" t="s">
-        <v>1040</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -9309,16 +9116,16 @@
         <v>2562</v>
       </c>
       <c r="E216" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="F216" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="G216" t="s">
-        <v>704</v>
+        <v>687</v>
       </c>
       <c r="H216" t="s">
-        <v>1041</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -9335,16 +9142,16 @@
         <v>10353442</v>
       </c>
       <c r="E217" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F217" t="s">
-        <v>655</v>
+        <v>640</v>
       </c>
       <c r="G217" t="s">
-        <v>682</v>
+        <v>666</v>
       </c>
       <c r="H217" t="s">
-        <v>1042</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -9361,16 +9168,16 @@
         <v>8654622</v>
       </c>
       <c r="E218" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="F218" t="s">
-        <v>656</v>
+        <v>589</v>
       </c>
       <c r="G218" t="s">
-        <v>810</v>
+        <v>788</v>
       </c>
       <c r="H218" t="s">
-        <v>1043</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -9387,16 +9194,16 @@
         <v>17500657</v>
       </c>
       <c r="E219" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F219" t="s">
-        <v>657</v>
+        <v>641</v>
       </c>
       <c r="G219" t="s">
-        <v>684</v>
+        <v>668</v>
       </c>
       <c r="H219" t="s">
-        <v>1044</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -9413,16 +9220,16 @@
         <v>23503349</v>
       </c>
       <c r="E220" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="F220" t="s">
-        <v>658</v>
+        <v>642</v>
       </c>
       <c r="G220" t="s">
-        <v>715</v>
+        <v>697</v>
       </c>
       <c r="H220" t="s">
-        <v>1045</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -9439,16 +9246,16 @@
         <v>9537642</v>
       </c>
       <c r="E221" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F221" t="s">
-        <v>659</v>
+        <v>643</v>
       </c>
       <c r="G221" t="s">
-        <v>811</v>
+        <v>789</v>
       </c>
       <c r="H221" t="s">
-        <v>1046</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -9465,16 +9272,16 @@
         <v>59734213</v>
       </c>
       <c r="E222" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="F222" t="s">
-        <v>660</v>
+        <v>644</v>
       </c>
       <c r="G222" t="s">
-        <v>755</v>
+        <v>735</v>
       </c>
       <c r="H222" t="s">
-        <v>1047</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -9491,16 +9298,16 @@
         <v>69799978</v>
       </c>
       <c r="E223" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F223" t="s">
-        <v>661</v>
+        <v>645</v>
       </c>
       <c r="G223" t="s">
-        <v>812</v>
+        <v>790</v>
       </c>
       <c r="H223" t="s">
-        <v>1048</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -9517,16 +9324,16 @@
         <v>1318442</v>
       </c>
       <c r="E224" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="F224" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="G224" t="s">
-        <v>813</v>
+        <v>791</v>
       </c>
       <c r="H224" t="s">
-        <v>1049</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -9543,16 +9350,16 @@
         <v>8278737</v>
       </c>
       <c r="E225" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F225" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="G225" t="s">
-        <v>699</v>
+        <v>682</v>
       </c>
       <c r="H225" t="s">
-        <v>1050</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -9569,16 +9376,16 @@
         <v>1411</v>
       </c>
       <c r="E226" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="F226" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="G226" t="s">
-        <v>814</v>
+        <v>792</v>
       </c>
       <c r="H226" t="s">
-        <v>1051</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -9595,16 +9402,16 @@
         <v>105697</v>
       </c>
       <c r="E227" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F227" t="s">
-        <v>662</v>
+        <v>646</v>
       </c>
       <c r="G227" t="s">
-        <v>815</v>
+        <v>793</v>
       </c>
       <c r="H227" t="s">
-        <v>1052</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -9621,16 +9428,16 @@
         <v>1399491</v>
       </c>
       <c r="E228" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="F228" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="G228" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="H228" t="s">
-        <v>1053</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -9647,16 +9454,16 @@
         <v>11818618</v>
       </c>
       <c r="E229" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F229" t="s">
-        <v>664</v>
+        <v>648</v>
       </c>
       <c r="G229" t="s">
-        <v>684</v>
+        <v>668</v>
       </c>
       <c r="H229" t="s">
-        <v>1054</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -9673,16 +9480,16 @@
         <v>84339067</v>
       </c>
       <c r="E230" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="F230" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
       <c r="G230" t="s">
-        <v>816</v>
+        <v>794</v>
       </c>
       <c r="H230" t="s">
-        <v>1055</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -9699,16 +9506,16 @@
         <v>6031187</v>
       </c>
       <c r="E231" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F231" t="s">
-        <v>666</v>
+        <v>650</v>
       </c>
       <c r="G231" t="s">
-        <v>817</v>
+        <v>795</v>
       </c>
       <c r="H231" t="s">
-        <v>1056</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -9725,16 +9532,16 @@
         <v>38718</v>
       </c>
       <c r="E232" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="F232" t="s">
-        <v>532</v>
+        <v>506</v>
       </c>
       <c r="G232" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="H232" t="s">
-        <v>1057</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -9751,16 +9558,16 @@
         <v>11792</v>
       </c>
       <c r="E233" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F233" t="s">
-        <v>667</v>
+        <v>651</v>
       </c>
       <c r="G233" t="s">
-        <v>818</v>
+        <v>796</v>
       </c>
       <c r="H233" t="s">
-        <v>1058</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -9777,16 +9584,16 @@
         <v>45741000</v>
       </c>
       <c r="E234" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="F234" t="s">
-        <v>668</v>
+        <v>652</v>
       </c>
       <c r="G234" t="s">
-        <v>819</v>
+        <v>735</v>
       </c>
       <c r="H234" t="s">
-        <v>1059</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -9803,16 +9610,16 @@
         <v>44134693</v>
       </c>
       <c r="E235" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F235" t="s">
-        <v>669</v>
+        <v>653</v>
       </c>
       <c r="G235" t="s">
-        <v>820</v>
+        <v>797</v>
       </c>
       <c r="H235" t="s">
-        <v>1060</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -9829,16 +9636,16 @@
         <v>9890400</v>
       </c>
       <c r="E236" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="F236" t="s">
-        <v>670</v>
+        <v>654</v>
       </c>
       <c r="G236" t="s">
-        <v>684</v>
+        <v>668</v>
       </c>
       <c r="H236" t="s">
-        <v>1061</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -9855,16 +9662,16 @@
         <v>67215293</v>
       </c>
       <c r="E237" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F237" t="s">
-        <v>671</v>
+        <v>655</v>
       </c>
       <c r="G237" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="H237" t="s">
-        <v>1062</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -9881,16 +9688,16 @@
         <v>329484123</v>
       </c>
       <c r="E238" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="F238" t="s">
-        <v>532</v>
+        <v>506</v>
       </c>
       <c r="G238" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="H238" t="s">
-        <v>1063</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -9907,16 +9714,16 @@
         <v>300</v>
       </c>
       <c r="E239" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F239" t="s">
-        <v>532</v>
+        <v>506</v>
       </c>
       <c r="G239" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="H239" t="s">
-        <v>1064</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -9933,16 +9740,16 @@
         <v>106290</v>
       </c>
       <c r="E240" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="F240" t="s">
-        <v>532</v>
+        <v>506</v>
       </c>
       <c r="G240" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="H240" t="s">
-        <v>1065</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -9959,16 +9766,16 @@
         <v>3473727</v>
       </c>
       <c r="E241" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F241" t="s">
-        <v>672</v>
+        <v>656</v>
       </c>
       <c r="G241" t="s">
-        <v>714</v>
+        <v>696</v>
       </c>
       <c r="H241" t="s">
-        <v>1066</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -9985,16 +9792,16 @@
         <v>34232050</v>
       </c>
       <c r="E242" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="F242" t="s">
-        <v>673</v>
+        <v>657</v>
       </c>
       <c r="G242" t="s">
-        <v>821</v>
+        <v>798</v>
       </c>
       <c r="H242" t="s">
-        <v>1067</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -10011,16 +9818,16 @@
         <v>307150</v>
       </c>
       <c r="E243" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F243" t="s">
-        <v>674</v>
+        <v>658</v>
       </c>
       <c r="G243" t="s">
-        <v>822</v>
+        <v>799</v>
       </c>
       <c r="H243" t="s">
-        <v>1068</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -10037,16 +9844,16 @@
         <v>451</v>
       </c>
       <c r="E244" t="s">
-        <v>498</v>
+        <v>249</v>
       </c>
       <c r="F244" t="s">
-        <v>550</v>
+        <v>503</v>
       </c>
       <c r="G244" t="s">
-        <v>823</v>
+        <v>800</v>
       </c>
       <c r="H244" t="s">
-        <v>1069</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -10063,16 +9870,16 @@
         <v>28435943</v>
       </c>
       <c r="E245" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="F245" t="s">
-        <v>675</v>
+        <v>659</v>
       </c>
       <c r="G245" t="s">
-        <v>714</v>
+        <v>696</v>
       </c>
       <c r="H245" t="s">
-        <v>1070</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -10089,16 +9896,16 @@
         <v>97338583</v>
       </c>
       <c r="E246" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="F246" t="s">
-        <v>676</v>
+        <v>660</v>
       </c>
       <c r="G246" t="s">
-        <v>824</v>
+        <v>801</v>
       </c>
       <c r="H246" t="s">
-        <v>1071</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -10115,16 +9922,16 @@
         <v>11750</v>
       </c>
       <c r="E247" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="F247" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="G247" t="s">
-        <v>699</v>
+        <v>682</v>
       </c>
       <c r="H247" t="s">
-        <v>1072</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -10141,16 +9948,16 @@
         <v>510713</v>
       </c>
       <c r="E248" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F248" t="s">
-        <v>677</v>
+        <v>661</v>
       </c>
       <c r="G248" t="s">
-        <v>825</v>
+        <v>802</v>
       </c>
       <c r="H248" t="s">
-        <v>1073</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -10167,16 +9974,16 @@
         <v>29825968</v>
       </c>
       <c r="E249" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="F249" t="s">
-        <v>678</v>
+        <v>662</v>
       </c>
       <c r="G249" t="s">
-        <v>684</v>
+        <v>668</v>
       </c>
       <c r="H249" t="s">
-        <v>1074</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -10193,16 +10000,16 @@
         <v>18383956</v>
       </c>
       <c r="E250" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="F250" t="s">
-        <v>679</v>
+        <v>663</v>
       </c>
       <c r="G250" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="H250" t="s">
-        <v>1075</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -10219,97 +10026,19 @@
         <v>14862927</v>
       </c>
       <c r="E251" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="F251" t="s">
-        <v>680</v>
+        <v>664</v>
       </c>
       <c r="G251" t="s">
-        <v>826</v>
+        <v>803</v>
       </c>
       <c r="H251" t="s">
-        <v>1076</v>
+        <v>1053</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B2">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B4">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B5">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B6">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B7">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B8">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/example.xlsx
+++ b/example.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Paises" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Metricas" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Paises" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Metricas" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -151,13 +151,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -181,7 +181,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -233,18 +233,18 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>top 5 paises con mas habitantes</a:t>
+              <a:t>Top 5 paises con mas habitantes</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -263,7 +263,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -315,7 +315,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>4</col>
@@ -330,9 +330,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -352,9 +352,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -723,7 +723,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Dari,Pashto,Turkmen</t>
+          <t>Dari, Pashto, Turkmen</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -863,7 +863,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>English,Samoan</t>
+          <t>English, Samoan</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1058,7 +1058,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Guaraní,Spanish</t>
+          <t>Guaraní, Spanish</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1128,7 +1128,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Dutch,Papiamento</t>
+          <t>Dutch, Papiamento</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1233,7 +1233,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Azerbaijani,Russian</t>
+          <t>Azerbaijani, Russian</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Bahamian dollar,United States dollar</t>
+          <t>Bahamian dollar, United States dollar</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1408,7 +1408,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Belarusian,Russian</t>
+          <t>Belarusian, Russian</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Dutch,French,German</t>
+          <t>Dutch, French, German</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1478,7 +1478,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Belizean Creole,English,Spanish</t>
+          <t>Belizean Creole, English, Spanish</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1578,7 +1578,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Bhutanese ngultrum,Indian rupee</t>
+          <t>Bhutanese ngultrum, Indian rupee</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1618,7 +1618,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Aymara,Guaraní,Quechua,Spanish</t>
+          <t>Aymara, Guaraní, Quechua, Spanish</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1653,7 +1653,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Bosnian,Croatian,Serbian</t>
+          <t>Bosnian, Croatian, Serbian</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1688,7 +1688,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>English,Tswana</t>
+          <t>English, Tswana</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1848,7 +1848,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Brunei dollar,Singapore dollar</t>
+          <t>Brunei dollar, Singapore dollar</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1958,7 +1958,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>French,Kirundi</t>
+          <t>French, Kirundi</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -1988,7 +1988,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Cambodian riel,United States dollar</t>
+          <t>Cambodian riel, United States dollar</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2028,7 +2028,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>English,French</t>
+          <t>English, French</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2063,7 +2063,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>English,French</t>
+          <t>English, French</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2133,7 +2133,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Dutch,English,Papiamento</t>
+          <t>Dutch, English, Papiamento</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2203,7 +2203,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>French,Sango</t>
+          <t>French, Sango</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2238,7 +2238,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Arabic,French</t>
+          <t>Arabic, French</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2448,7 +2448,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Arabic,Comorian,French</t>
+          <t>Arabic, Comorian, French</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2478,12 +2478,12 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Cook Islands dollar,New Zealand dollar</t>
+          <t>Cook Islands dollar, New Zealand dollar</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Cook Islands Māori,English</t>
+          <t>Cook Islands Māori, English</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2583,7 +2583,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Cuban convertible peso,Cuban peso</t>
+          <t>Cuban convertible peso, Cuban peso</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2623,7 +2623,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Dutch,English,Papiamento</t>
+          <t>Dutch, English, Papiamento</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2658,7 +2658,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Greek,Turkish</t>
+          <t>Greek, Turkish</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -2693,7 +2693,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Czech,Slovak</t>
+          <t>Czech, Slovak</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -2763,7 +2763,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Arabic,French</t>
+          <t>Arabic, French</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -2868,7 +2868,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>French,Kikongo,Lingala,Swahili,Tshiluba</t>
+          <t>French, Kikongo, Lingala, Swahili, Tshiluba</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -3008,7 +3008,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>French,Portuguese,Spanish</t>
+          <t>French, Portuguese, Spanish</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -3043,7 +3043,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Arabic,English,Tigrinya</t>
+          <t>Arabic, English, Tigrinya</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -3108,12 +3108,12 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>South African rand,Swazi lilangeni</t>
+          <t>South African rand, Swazi lilangeni</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>English,Swazi</t>
+          <t>English, Swazi</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -3213,12 +3213,12 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Faroese króna,krone</t>
+          <t>Faroese króna, krone</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Danish,Faroese</t>
+          <t>Danish, Faroese</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -3253,7 +3253,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>English,Fijian,Fiji Hindi</t>
+          <t>English, Fijian, Fiji Hindi</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -3288,7 +3288,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Finnish,Swedish</t>
+          <t>Finnish, Swedish</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -3813,7 +3813,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Chamorro,English,Spanish</t>
+          <t>Chamorro, English, Spanish</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -3878,12 +3878,12 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>British pound,Guernsey pound</t>
+          <t>British pound, Guernsey pound</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>English,French,Guernésiais</t>
+          <t>English, French, Guernésiais</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -3953,7 +3953,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Portuguese,Upper Guinea Creole</t>
+          <t>Portuguese, Upper Guinea Creole</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -4023,7 +4023,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>French,Haitian Creole</t>
+          <t>French, Haitian Creole</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Chinese,English</t>
+          <t>Chinese, English</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -4223,7 +4223,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>English,Hindi,Tamil</t>
+          <t>English, Hindi, Tamil</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -4328,7 +4328,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Arabic,Aramaic,Sorani</t>
+          <t>Arabic, Aramaic, Sorani</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -4363,7 +4363,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>English,Irish</t>
+          <t>English, Irish</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -4393,12 +4393,12 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>British pound,Manx pound</t>
+          <t>British pound, Manx pound</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>English,Manx</t>
+          <t>English, Manx</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -4433,7 +4433,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Arabic,Hebrew</t>
+          <t>Arabic, Hebrew</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -4538,7 +4538,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>English,Jamaican Patois</t>
+          <t>English, Jamaican Patois</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -4603,12 +4603,12 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>British pound,Jersey pound</t>
+          <t>British pound, Jersey pound</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>English,French,Jèrriais</t>
+          <t>English, French, Jèrriais</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -4678,7 +4678,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Kazakh,Russian</t>
+          <t>Kazakh, Russian</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -4713,7 +4713,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>English,Swahili</t>
+          <t>English, Swahili</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -4743,12 +4743,12 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Australian dollar,Kiribati dollar</t>
+          <t>Australian dollar, Kiribati dollar</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>English,Gilbertese</t>
+          <t>English, Gilbertese</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -4783,7 +4783,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Albanian,Serbian</t>
+          <t>Albanian, Serbian</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -4853,7 +4853,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Kyrgyz,Russian</t>
+          <t>Kyrgyz, Russian</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -4958,7 +4958,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Arabic,French</t>
+          <t>Arabic, French</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -4988,12 +4988,12 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Lesotho loti,South African rand</t>
+          <t>Lesotho loti, South African rand</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>English,Sotho</t>
+          <t>English, Sotho</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -5168,7 +5168,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>French,German,Luxembourgish</t>
+          <t>French, German, Luxembourgish</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -5198,7 +5198,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Chinese,Portuguese</t>
+          <t>Chinese, Portuguese</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -5233,7 +5233,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>French,Malagasy</t>
+          <t>French, Malagasy</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -5268,7 +5268,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Chewa,English</t>
+          <t>Chewa, English</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -5303,7 +5303,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>English,Malay</t>
+          <t>English, Malay</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -5408,7 +5408,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>English,Maltese</t>
+          <t>English, Maltese</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -5443,7 +5443,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>English,Marshallese</t>
+          <t>English, Marshallese</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -5548,7 +5548,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>English,French,Mauritian Creole</t>
+          <t>English, French, Mauritian Creole</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -5863,7 +5863,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Arabic,Berber</t>
+          <t>Arabic, Berber</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -5963,12 +5963,12 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Namibian dollar,South African rand</t>
+          <t>Namibian dollar, South African rand</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Afrikaans,English,German,Herero,Khoekhoe,Kwangali,Lozi,Ndonga,Tswana</t>
+          <t>Afrikaans, English, German, Herero, Khoekhoe, Kwangali, Lozi, Ndonga, Tswana</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -6003,7 +6003,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>English,Nauru</t>
+          <t>English, Nauru</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -6143,7 +6143,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>English,Māori,New Zealand Sign Language</t>
+          <t>English, Māori, New Zealand Sign Language</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -6283,7 +6283,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>English,Niuean</t>
+          <t>English, Niuean</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -6318,7 +6318,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>English,Norfuk</t>
+          <t>English, Norfuk</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -6353,7 +6353,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Carolinian,Chamorro,English</t>
+          <t>Carolinian, Chamorro, English</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -6458,7 +6458,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Norwegian Bokmål,Norwegian Nynorsk,Sami</t>
+          <t>Norwegian Bokmål, Norwegian Nynorsk, Sami</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -6528,7 +6528,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>English,Urdu</t>
+          <t>English, Urdu</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -6563,7 +6563,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>English,Palauan</t>
+          <t>English, Palauan</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -6588,12 +6588,12 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Jerusalem,Ramallah</t>
+          <t>Jerusalem, Ramallah</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Egyptian pound,Israeli new shekel,Jordanian dinar</t>
+          <t>Egyptian pound, Israeli new shekel, Jordanian dinar</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -6628,7 +6628,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Panamanian balboa,United States dollar</t>
+          <t>Panamanian balboa, United States dollar</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -6668,7 +6668,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>English,Hiri Motu,Tok Pisin</t>
+          <t>English, Hiri Motu, Tok Pisin</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -6703,7 +6703,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Guaraní,Spanish</t>
+          <t>Guaraní, Spanish</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -6738,7 +6738,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Aymara,Quechua,Spanish</t>
+          <t>Aymara, Quechua, Spanish</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -6773,7 +6773,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>English,Filipino</t>
+          <t>English, Filipino</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -6913,7 +6913,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>English,Spanish</t>
+          <t>English, Spanish</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -6983,7 +6983,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>French,Kikongo,Lingala</t>
+          <t>French, Kikongo, Lingala</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -7123,7 +7123,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>English,French,Kinyarwanda</t>
+          <t>English, French, Kinyarwanda</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -7188,7 +7188,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>British pound,Saint Helena pound</t>
+          <t>British pound, Saint Helena pound</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -7403,7 +7403,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>English,Samoan</t>
+          <t>English, Samoan</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -7613,7 +7613,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>English,French,Seychellois Creole</t>
+          <t>English, French, Seychellois Creole</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -7683,7 +7683,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Chinese,English,Malay,Tamil</t>
+          <t>Chinese, English, Malay, Tamil</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -7718,7 +7718,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Dutch,English,French</t>
+          <t>Dutch, English, French</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -7858,7 +7858,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Arabic,Somali</t>
+          <t>Arabic, Somali</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
@@ -7883,7 +7883,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Bloemfontein,Cape Town,Pretoria</t>
+          <t>Bloemfontein, Cape Town, Pretoria</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -7893,7 +7893,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Afrikaans,English,Northern Sotho,Sotho,Southern Ndebele,Swazi,Tsonga,Tswana,Venda,Xhosa,Zulu</t>
+          <t>Afrikaans, English, Northern Sotho, Sotho, Southern Ndebele, Swazi, Tsonga, Tswana, Venda, Xhosa, Zulu</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -8068,7 +8068,7 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>Sinhala,Tamil</t>
+          <t>Sinhala, Tamil</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
@@ -8103,7 +8103,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>Arabic,English</t>
+          <t>Arabic, English</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -8243,7 +8243,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>French,Italian,Romansh,Swiss German</t>
+          <t>French, Italian, Romansh, Swiss German</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -8348,7 +8348,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>Russian,Tajik</t>
+          <t>Russian, Tajik</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -8383,7 +8383,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>English,Swahili</t>
+          <t>English, Swahili</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
@@ -8453,7 +8453,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>Portuguese,Tetum</t>
+          <t>Portuguese, Tetum</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -8523,7 +8523,7 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>English,Samoan,Tokelauan</t>
+          <t>English, Samoan, Tokelauan</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -8558,7 +8558,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>English,Tongan</t>
+          <t>English, Tongan</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -8698,7 +8698,7 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>Russian,Turkmen</t>
+          <t>Russian, Turkmen</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
@@ -8763,12 +8763,12 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Australian dollar,Tuvaluan dollar</t>
+          <t>Australian dollar, Tuvaluan dollar</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>English,Tuvaluan</t>
+          <t>English, Tuvaluan</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
@@ -8803,7 +8803,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>English,Swahili</t>
+          <t>English, Swahili</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
@@ -9083,7 +9083,7 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>Russian,Uzbek</t>
+          <t>Russian, Uzbek</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
@@ -9118,7 +9118,7 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>Bislama,English,French</t>
+          <t>Bislama, English, French</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
@@ -9153,7 +9153,7 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>Italian,Latin</t>
+          <t>Italian, Latin</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
@@ -9288,12 +9288,12 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Algerian dinar,Mauritanian ouguiya,Moroccan dirham</t>
+          <t>Algerian dinar, Mauritanian ouguiya, Moroccan dirham</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>Berber,Hassaniya,Spanish</t>
+          <t>Berber, Hassaniya, Spanish</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
@@ -9398,7 +9398,7 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>Chewa,Chibarwe,English,Kalanga,Khoisan,Ndau,Northern Ndebele,Shona,Sotho,Tonga,Tsonga,Tswana,Venda,Xhosa,Zimbabwean Sign Language</t>
+          <t>Chewa, Chibarwe, English, Kalanga, Khoisan, Ndau, Northern Ndebele, Shona, Sotho, Tonga, Tsonga, Tswana, Venda, Xhosa, Zimbabwean Sign Language</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
@@ -9413,7 +9413,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -9587,6 +9587,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>